--- a/movies.xlsx
+++ b/movies.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="598">
   <si>
     <t>ID</t>
   </si>
@@ -46,6 +46,24 @@
     <t>Genre IDs</t>
   </si>
   <si>
+    <t>Cosmic Chaos</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2023-08-03</t>
+  </si>
+  <si>
+    <t>/mClzWv7gBqgXfjZXp49Enyoex1v.jpg</t>
+  </si>
+  <si>
+    <t>/m2mzlsJjE3UAqeUB5fLUkpWg4Iq.jpg</t>
+  </si>
+  <si>
+    <t>53, 878</t>
+  </si>
+  <si>
     <t>클리너</t>
   </si>
   <si>
@@ -65,24 +83,6 @@
   </si>
   <si>
     <t>28, 53</t>
-  </si>
-  <si>
-    <t>Cosmic Chaos</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2023-08-03</t>
-  </si>
-  <si>
-    <t>/mClzWv7gBqgXfjZXp49Enyoex1v.jpg</t>
-  </si>
-  <si>
-    <t>/m2mzlsJjE3UAqeUB5fLUkpWg4Iq.jpg</t>
-  </si>
-  <si>
-    <t>53, 878</t>
   </si>
   <si>
     <t>캡틴 아메리카: 브레이브 뉴 월드</t>
@@ -187,6 +187,48 @@
     <t>16, 28</t>
   </si>
   <si>
+    <t>모아나 2</t>
+  </si>
+  <si>
+    <t>Moana 2</t>
+  </si>
+  <si>
+    <t>바다를 누볐던 선조들에게서 예기치 못한 부름을 받은 모아나가 마우이와 다시 만나 새로운 선원들과 함께 오랫동안 잊혀진 멀고 위험한 바다 너머로 떠나는 특별한 모험을 담은 이야기</t>
+  </si>
+  <si>
+    <t>2024-11-21</t>
+  </si>
+  <si>
+    <t>/hwmwTFtMbzxAWbIOp1RyyiOCyx0.jpg</t>
+  </si>
+  <si>
+    <t>/zo8CIjJ2nfNOevqNajwMRO6Hwka.jpg</t>
+  </si>
+  <si>
+    <t>16, 12, 10751, 35</t>
+  </si>
+  <si>
+    <t>역습</t>
+  </si>
+  <si>
+    <t>Contraataque</t>
+  </si>
+  <si>
+    <t>인질 구출 작전 중 새로운 적을 얻게 된 게레로 대위와 정예 부대원들. 그 여파로 범죄 조직의 급습을 받게 된다.</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>/6wHJ0hnFx5ZGTvSUTqq3WC07DgN.jpg</t>
+  </si>
+  <si>
+    <t>/deUWVEgNh2IGjShyymZhaYP40ye.jpg</t>
+  </si>
+  <si>
+    <t>28, 12, 53</t>
+  </si>
+  <si>
     <t>무파사: 라이온 킹</t>
   </si>
   <si>
@@ -208,27 +250,6 @@
     <t>12, 10751, 16</t>
   </si>
   <si>
-    <t>모아나 2</t>
-  </si>
-  <si>
-    <t>Moana 2</t>
-  </si>
-  <si>
-    <t>바다를 누볐던 선조들에게서 예기치 못한 부름을 받은 모아나가 마우이와 다시 만나 새로운 선원들과 함께 오랫동안 잊혀진 멀고 위험한 바다 너머로 떠나는 특별한 모험을 담은 이야기</t>
-  </si>
-  <si>
-    <t>2024-11-21</t>
-  </si>
-  <si>
-    <t>/hwmwTFtMbzxAWbIOp1RyyiOCyx0.jpg</t>
-  </si>
-  <si>
-    <t>/zo8CIjJ2nfNOevqNajwMRO6Hwka.jpg</t>
-  </si>
-  <si>
-    <t>16, 12, 10751, 35</t>
-  </si>
-  <si>
     <t>Popeye the Slayer Man</t>
   </si>
   <si>
@@ -241,27 +262,6 @@
     <t>/xkjWiRQtrenqGRWO2Enry2JIl4d.jpg</t>
   </si>
   <si>
-    <t>역습</t>
-  </si>
-  <si>
-    <t>Contraataque</t>
-  </si>
-  <si>
-    <t>인질 구출 작전 중 새로운 적을 얻게 된 게레로 대위와 정예 부대원들. 그 여파로 범죄 조직의 급습을 받게 된다.</t>
-  </si>
-  <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>/6wHJ0hnFx5ZGTvSUTqq3WC07DgN.jpg</t>
-  </si>
-  <si>
-    <t>/deUWVEgNh2IGjShyymZhaYP40ye.jpg</t>
-  </si>
-  <si>
-    <t>28, 12, 53</t>
-  </si>
-  <si>
     <t>일렉트릭 스테이트</t>
   </si>
   <si>
@@ -298,6 +298,27 @@
     <t>28, 35</t>
   </si>
   <si>
+    <t>시스터 리벤저</t>
+  </si>
+  <si>
+    <t>The Vigilante</t>
+  </si>
+  <si>
+    <t>동생이 실종되고 그녀의 추격이 시작됐다!  해병대 소속 군인 제시카.  무용수를 꿈꾸는 열세살 동생 에이미는 그녀의 전부와 다름없다.  집으로 돌아오려던 그 때,  제시카는 에이미가 성매매 업자들에게 납치됐다는 사실을 듣게 되는데…</t>
+  </si>
+  <si>
+    <t>2023-09-08</t>
+  </si>
+  <si>
+    <t>/oDKoTsd6ftFW32ugSTsxeVcePZC.jpg</t>
+  </si>
+  <si>
+    <t>/nYQJYdfoy7Tkx6bPzUpmCMmyJ4y.jpg</t>
+  </si>
+  <si>
+    <t>53, 28</t>
+  </si>
+  <si>
     <t>'더 캐니언' - The Gorge</t>
   </si>
   <si>
@@ -319,6 +340,69 @@
     <t>10749, 878, 53</t>
   </si>
   <si>
+    <t>헬하운드</t>
+  </si>
+  <si>
+    <t>Hellhound</t>
+  </si>
+  <si>
+    <t>최고의 킬러가 마지막 의뢰를 맡아 태국으로 향하고, 불의의 사건을 겪은 뒤 방콕 갱단과 마지막 전면전을 벌인다.</t>
+  </si>
+  <si>
+    <t>2024-06-20</t>
+  </si>
+  <si>
+    <t>/h1BtcTEk0pbe9XhbxrAp2oLKoWb.jpg</t>
+  </si>
+  <si>
+    <t>/mhKQ5ntqlXyck0TWh1pCpn42aAx.jpg</t>
+  </si>
+  <si>
+    <t>28, 80, 53</t>
+  </si>
+  <si>
+    <t>수퍼 소닉 3</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog 3</t>
+  </si>
+  <si>
+    <t>너클즈, 테일즈와 함께 평화로운 일상을 보내던 초특급 히어로 소닉. 연구 시설에 50년간 잠들어 있던 사상 최강의 비밀 병기 "섀도우"가 탈주하자, 세계 수호 통합 부대(약칭 세.수.통)에 의해 극비 소집된다. 소중한 것을 잃은 분노와 복수심에 불타는 섀도우는 소닉의 초고속 스피드와 너클즈의 최강 펀치를 단 단숨에 제압해버린다. 세상을 지배하려는 닥터 로보트닉과 그의 할아버지 제럴드 박사는 섀도우의 엄청난 힘 카오스 에너지를 이용해 인류를 정복하려고 하는데…</t>
+  </si>
+  <si>
+    <t>2024-12-19</t>
+  </si>
+  <si>
+    <t>/5ZoI48Puf5i5FwI6HOpunDuJOw0.jpg</t>
+  </si>
+  <si>
+    <t>/zOpe0eHsq0A2NvNyBbtT6sj53qV.jpg</t>
+  </si>
+  <si>
+    <t>28, 878, 35, 10751, 12, 14</t>
+  </si>
+  <si>
+    <t>데몬 시티: 악귀 죽이기</t>
+  </si>
+  <si>
+    <t>Demon City 鬼ゴロシ</t>
+  </si>
+  <si>
+    <t>가족을 살해했다는 누명을 쓴 채 식물인간으로 방치되었던 전직 킬러. 도시를 점령한 가면 쓴 ‘악귀들’을 향한 그의 거침없는 복수가 시작된다.</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>/45us5s9vvXwah7rxF6lzYpKpzPi.jpg</t>
+  </si>
+  <si>
+    <t>/hD2SN5bbqxk0kcRmsATJkXObgnZ.jpg</t>
+  </si>
+  <si>
+    <t>28, 80, 14, 53</t>
+  </si>
+  <si>
     <t>플라이트 리스크</t>
   </si>
   <si>
@@ -337,25 +421,16 @@
     <t>/gFFqWsjLjRfipKzlzaYPD097FNC.jpg</t>
   </si>
   <si>
-    <t>28, 80, 53</t>
-  </si>
-  <si>
-    <t>헬하운드</t>
-  </si>
-  <si>
-    <t>Hellhound</t>
-  </si>
-  <si>
-    <t>최고의 킬러가 마지막 의뢰를 맡아 태국으로 향하고, 불의의 사건을 겪은 뒤 방콕 갱단과 마지막 전면전을 벌인다.</t>
-  </si>
-  <si>
-    <t>2024-06-20</t>
-  </si>
-  <si>
-    <t>/h1BtcTEk0pbe9XhbxrAp2oLKoWb.jpg</t>
-  </si>
-  <si>
-    <t>/mhKQ5ntqlXyck0TWh1pCpn42aAx.jpg</t>
+    <t>स्काई फ़ोर्स</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>/f1KLUpaW7rbXhUm5SxG1lpPFFCJ.jpg</t>
+  </si>
+  <si>
+    <t>/pwfXx2O3eFXi5dtWCV5XJPQJgqN.jpg</t>
   </si>
   <si>
     <t>더 몽키</t>
@@ -374,64 +449,61 @@
     <t>/yYa8Onk9ow7ukcnfp2QWVvjWYel.jpg</t>
   </si>
   <si>
-    <t>/6dC7ULfiutxwEAs7LjWHL2Tc7Zv.jpg</t>
+    <t>/25CY0FggI3YXy7AS4xIfVBcRaMq.jpg</t>
   </si>
   <si>
     <t>27, 35</t>
   </si>
   <si>
-    <t>데몬 시티: 악귀 죽이기</t>
-  </si>
-  <si>
-    <t>Demon City 鬼ゴロシ</t>
-  </si>
-  <si>
-    <t>가족을 살해했다는 누명을 쓴 채 식물인간으로 방치되었던 전직 킬러. 도시를 점령한 가면 쓴 ‘악귀들’을 향한 그의 거침없는 복수가 시작된다.</t>
-  </si>
-  <si>
-    <t>2025-02-26</t>
-  </si>
-  <si>
-    <t>/45us5s9vvXwah7rxF6lzYpKpzPi.jpg</t>
-  </si>
-  <si>
-    <t>/hD2SN5bbqxk0kcRmsATJkXObgnZ.jpg</t>
-  </si>
-  <si>
-    <t>28, 80, 14, 53</t>
-  </si>
-  <si>
-    <t>수퍼 소닉 3</t>
-  </si>
-  <si>
-    <t>Sonic the Hedgehog 3</t>
-  </si>
-  <si>
-    <t>너클즈, 테일즈와 함께 평화로운 일상을 보내던 초특급 히어로 소닉. 연구 시설에 50년간 잠들어 있던 사상 최강의 비밀 병기 "섀도우"가 탈주하자, 세계 수호 통합 부대(약칭 세.수.통)에 의해 극비 소집된다. 소중한 것을 잃은 분노와 복수심에 불타는 섀도우는 소닉의 초고속 스피드와 너클즈의 최강 펀치를 단 단숨에 제압해버린다. 세상을 지배하려는 닥터 로보트닉과 그의 할아버지 제럴드 박사는 섀도우의 엄청난 힘 카오스 에너지를 이용해 인류를 정복하려고 하는데…</t>
-  </si>
-  <si>
-    <t>2024-12-19</t>
-  </si>
-  <si>
-    <t>/5ZoI48Puf5i5FwI6HOpunDuJOw0.jpg</t>
-  </si>
-  <si>
-    <t>/zOpe0eHsq0A2NvNyBbtT6sj53qV.jpg</t>
-  </si>
-  <si>
-    <t>28, 878, 35, 10751, 12, 14</t>
-  </si>
-  <si>
-    <t>स्काई फ़ोर्स</t>
-  </si>
-  <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
-    <t>/f1KLUpaW7rbXhUm5SxG1lpPFFCJ.jpg</t>
-  </si>
-  <si>
-    <t>/pwfXx2O3eFXi5dtWCV5XJPQJgqN.jpg</t>
+    <t>Frogman</t>
+  </si>
+  <si>
+    <t>2024-09-26</t>
+  </si>
+  <si>
+    <t>/hgAHquo8Bt0ub0ru3QLiyrhGltW.jpg</t>
+  </si>
+  <si>
+    <t>/99XoA625Gl9Q5tBKGX1nf2g11yJ.jpg</t>
+  </si>
+  <si>
+    <t>27, 14</t>
+  </si>
+  <si>
+    <t>Dark Match</t>
+  </si>
+  <si>
+    <t>2024-07-21</t>
+  </si>
+  <si>
+    <t>/6E6fBED3ix7FmrWUWZdeYG4vqK8.jpg</t>
+  </si>
+  <si>
+    <t>/7q5RVohE85yuQ9uZWXEXlHmfUOE.jpg</t>
+  </si>
+  <si>
+    <t>28, 27</t>
+  </si>
+  <si>
+    <t>홀랜드</t>
+  </si>
+  <si>
+    <t>Holland</t>
+  </si>
+  <si>
+    <t>튤립이 가득한 미시간주 홀랜드에서 지역사회 기둥인 남편 및 아들과 함께 그림 같은 삶을 사는 세심한 교사 겸 가정주부 낸시 밴더그루트가 왜곡된 이야기에 휘말리는 예측 불가능한 스릴러. 비밀을 감지한 낸시가 친절한 동료와 함께 알아낸 진실 하나. 그들의 삶은 겉보기와는 전혀 달랐다.</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>/WpNvu5wmoh5wA0xY6HzUa8UuZ8.jpg</t>
+  </si>
+  <si>
+    <t>/3xN4vNPWBSVDsiiOzL5sB95Sa1J.jpg</t>
+  </si>
+  <si>
+    <t>53, 9648, 10749</t>
   </si>
   <si>
     <t>계시록</t>
@@ -449,6 +521,24 @@
     <t>53, 80, 9648</t>
   </si>
   <si>
+    <t>베테랑 2</t>
+  </si>
+  <si>
+    <t>가족들도 못 챙기고 밤낮 없이 범죄들과 싸우는 베테랑 형사 서도철과 강력범죄수사대 형사들. 어느 날, 한 교수의 죽음이 이전에 발생했던 살인 사건들과 연관성이 있는 것으로 밝혀지며 전국은 연쇄살인범으로 인해 떠들썩해진다. 이에 단서를 추적하며 수사를 시작한 형사들. 하지만 이들을 비웃기라도 하듯, 연쇄살인범은 다음 살인 대상을 지목하는 예고편을 인터넷에 공개하며 또 한 번 전 국민을 흔들어 놓는다. 강력범죄수사대는 서도철의 눈에 든 정의감 넘치는 막내 형사 박선우를 투입한다. 그리고 사건은 새로운 방향으로 흐르게 되는데...</t>
+  </si>
+  <si>
+    <t>2024-09-13</t>
+  </si>
+  <si>
+    <t>/akqfhtM1Wa1klFi7ijmyNm7Sm1j.jpg</t>
+  </si>
+  <si>
+    <t>/bA4Io3xv46oEyP4O51uU0EKbluF.jpg</t>
+  </si>
+  <si>
+    <t>28, 80</t>
+  </si>
+  <si>
     <t>타일러 페리의 듀플리시티</t>
   </si>
   <si>
@@ -467,37 +557,19 @@
     <t>53, 18</t>
   </si>
   <si>
-    <t>Dark Match</t>
-  </si>
-  <si>
-    <t>2024-07-21</t>
-  </si>
-  <si>
-    <t>/6E6fBED3ix7FmrWUWZdeYG4vqK8.jpg</t>
-  </si>
-  <si>
-    <t>/7q5RVohE85yuQ9uZWXEXlHmfUOE.jpg</t>
-  </si>
-  <si>
-    <t>28, 27</t>
-  </si>
-  <si>
-    <t>베테랑 2</t>
-  </si>
-  <si>
-    <t>가족들도 못 챙기고 밤낮 없이 범죄들과 싸우는 베테랑 형사 서도철과 강력범죄수사대 형사들. 어느 날, 한 교수의 죽음이 이전에 발생했던 살인 사건들과 연관성이 있는 것으로 밝혀지며 전국은 연쇄살인범으로 인해 떠들썩해진다. 이에 단서를 추적하며 수사를 시작한 형사들. 하지만 이들을 비웃기라도 하듯, 연쇄살인범은 다음 살인 대상을 지목하는 예고편을 인터넷에 공개하며 또 한 번 전 국민을 흔들어 놓는다. 강력범죄수사대는 서도철의 눈에 든 정의감 넘치는 막내 형사 박선우를 투입한다. 그리고 사건은 새로운 방향으로 흐르게 되는데...</t>
-  </si>
-  <si>
-    <t>2024-09-13</t>
-  </si>
-  <si>
-    <t>/akqfhtM1Wa1klFi7ijmyNm7Sm1j.jpg</t>
-  </si>
-  <si>
-    <t>/bA4Io3xv46oEyP4O51uU0EKbluF.jpg</t>
-  </si>
-  <si>
-    <t>28, 80</t>
+    <t>அமரன்</t>
+  </si>
+  <si>
+    <t>2024-10-31</t>
+  </si>
+  <si>
+    <t>/eCB06m1KUGilEOlIzb40nkQhVY0.jpg</t>
+  </si>
+  <si>
+    <t>/7cNE2qydew1c8fqnlhWjkE3DHc2.jpg</t>
+  </si>
+  <si>
+    <t>28, 18, 12, 10752</t>
   </si>
   <si>
     <t>Bloat</t>
@@ -509,6 +581,24 @@
     <t>/gjqtmaKgZCZhCYgMJwsd3JHIAUt.jpg</t>
   </si>
   <si>
+    <t>리틀 시베리아</t>
+  </si>
+  <si>
+    <t>Pikku Siperia</t>
+  </si>
+  <si>
+    <t>핀란드의 어느 작은 마을에 떨어진 혜성. 그 여파로 큰 혼란이 일고 혜성을 훔치려는 자들이 활개를 치는 가운데, 마을 목사의 믿음이 송두리째 흔들리기 시작한다.</t>
+  </si>
+  <si>
+    <t>/yWE3HHVOqEzfb04y43lVjZHZiuV.jpg</t>
+  </si>
+  <si>
+    <t>/2jllAxMf7dTMt1fw9A1slsaj6Fv.jpg</t>
+  </si>
+  <si>
+    <t>35, 53</t>
+  </si>
+  <si>
     <t>어 워킹 맨</t>
   </si>
   <si>
@@ -524,58 +614,124 @@
     <t>/fTrQsdMS2MUw00RnzH0r3JWHhts.jpg</t>
   </si>
   <si>
-    <t>리틀 시베리아</t>
-  </si>
-  <si>
-    <t>Pikku Siperia</t>
-  </si>
-  <si>
-    <t>핀란드의 어느 작은 마을에 떨어진 혜성. 그 여파로 큰 혼란이 일고 혜성을 훔치려는 자들이 활개를 치는 가운데, 마을 목사의 믿음이 송두리째 흔들리기 시작한다.</t>
-  </si>
-  <si>
-    <t>/yWE3HHVOqEzfb04y43lVjZHZiuV.jpg</t>
-  </si>
-  <si>
-    <t>/2jllAxMf7dTMt1fw9A1slsaj6Fv.jpg</t>
-  </si>
-  <si>
-    <t>35, 53</t>
-  </si>
-  <si>
-    <t>அமரன்</t>
-  </si>
-  <si>
-    <t>2024-10-31</t>
-  </si>
-  <si>
-    <t>/eCB06m1KUGilEOlIzb40nkQhVY0.jpg</t>
-  </si>
-  <si>
-    <t>/7cNE2qydew1c8fqnlhWjkE3DHc2.jpg</t>
-  </si>
-  <si>
-    <t>28, 18, 12, 10752</t>
-  </si>
-  <si>
-    <t>시스터 리벤저</t>
-  </si>
-  <si>
-    <t>The Vigilante</t>
-  </si>
-  <si>
-    <t>동생이 실종되고 그녀의 추격이 시작됐다!  해병대 소속 군인 제시카.  무용수를 꿈꾸는 열세살 동생 에이미는 그녀의 전부와 다름없다.  집으로 돌아오려던 그 때,  제시카는 에이미가 성매매 업자들에게 납치됐다는 사실을 듣게 되는데…</t>
-  </si>
-  <si>
-    <t>2023-09-08</t>
-  </si>
-  <si>
-    <t>/oDKoTsd6ftFW32ugSTsxeVcePZC.jpg</t>
-  </si>
-  <si>
-    <t>/nYQJYdfoy7Tkx6bPzUpmCMmyJ4y.jpg</t>
-  </si>
-  <si>
-    <t>53, 28</t>
+    <t>크레이븐 더 헌터</t>
+  </si>
+  <si>
+    <t>Kraven the Hunter</t>
+  </si>
+  <si>
+    <t>죽음의 문턱에서 맹수의 초인적인 힘을 얻고 살아 돌아온 크레이븐이 무자비한 복수의 길을 택하며 거침없는 사냥을 펼치는 액션 블록버스터</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>/bA45ooXcp2B2qnMePfZ9QDL4wR5.jpg</t>
+  </si>
+  <si>
+    <t>/v9Du2HC3hlknAvGlWhquRbeifwW.jpg</t>
+  </si>
+  <si>
+    <t>컴패니언</t>
+  </si>
+  <si>
+    <t>Companion</t>
+  </si>
+  <si>
+    <t>서로에게 딱 맞는 커플 ‘아이리스’와 ‘조시’는 친구들과 함께 호숫가의 별장으로 호화로운 휴가를 떠난다. 하지만 그곳에는 충격적인 사건이 기다리고 있는데…</t>
+  </si>
+  <si>
+    <t>/dq7CEYFCvQPfYIpAXOvJr3w6VLY.jpg</t>
+  </si>
+  <si>
+    <t>/wLxQPbIM0Bcz832ekTVVlDq1AHV.jpg</t>
+  </si>
+  <si>
+    <t>35, 27, 878, 53</t>
+  </si>
+  <si>
+    <t>플랑크톤: 더 무비</t>
+  </si>
+  <si>
+    <t>Plankton: The Movie</t>
+  </si>
+  <si>
+    <t>플랑크톤과 똑똑한 인공지능 컴퓨터 부부. 어느 날 아내가 플랑크톤에게 반발해 혼자 세계 정복에 나서면서, 둘의 뒤엉킨 러브 스토리가 더 꼬이기 시작한다.</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>/lWtKFO27sIWdbCCOkph3e8cdu06.jpg</t>
+  </si>
+  <si>
+    <t>/lsgT602GYV8ts97sKH1gWFtQs1k.jpg</t>
+  </si>
+  <si>
+    <t>16, 12, 35, 10751, 14</t>
+  </si>
+  <si>
+    <t>플로우</t>
+  </si>
+  <si>
+    <t>Straume</t>
+  </si>
+  <si>
+    <t>인간이 살았던 흔적만이 남아있는 세상, 홀로 집을 지키던 '고양이'는 갑작스러운 대홍수로 평화롭던 일상과 아늑했던 터전을 잃고 만다. 때마침 다가온 낡은 배에 올라탄 '고양이'는 그 안에서 '골든 리트리버', '카피바라', '여우원숭이', '뱀잡이수리'를 만나고 서로의 차이점을 극복하고 팀을 이뤄 험난한 파도를 헤쳐나간다.</t>
+  </si>
+  <si>
+    <t>2024-08-29</t>
+  </si>
+  <si>
+    <t>/8ntMUYy0b0NIGWSWvMr07ui7CCJ.jpg</t>
+  </si>
+  <si>
+    <t>/zdy3h2sMppVp1Q41HpLiyF5w7es.jpg</t>
+  </si>
+  <si>
+    <t>16, 14, 12</t>
+  </si>
+  <si>
+    <t>나 혼자만 레벨업 -리어웨이크닝-</t>
+  </si>
+  <si>
+    <t>俺だけレベルアップな件 -ReAwakening-</t>
+  </si>
+  <si>
+    <t>다른 차원과 이쪽 세계를 이어 주는 통로인 '게이트가' 갑자기 발생한 지 10여 년. 세계에는 '헌터'라고 불리는 초인적인 힘에 각성한 사람들이 출현했다. 헌터는 그 힘을 사용해 게이트 안의 던전을 공략하고 대가를 받는 것을 생업으로 하고 있는데 강자들만 모인 헌터들 중 '성진우'는 인류 최약병기라 불리는 저랭크 헌터로서 생활하고 있었다. 어느 날, 저랭크 던전에 숨겨진 고랭크 이중 던전에서 빈사의 중상을 입은 성진우의 눈앞에 수수께끼의 퀘스트창이 나타났다. 죽음의 순간, 퀘스트를 수락하기로 결심한 성진우는 자신만 '레벨업'할 수 있게 되는데── 전직 퀘스트를 클리어하고 그림자 병사를 부릴 수 있는 '그림자 군주'가 된 성진우의 앞에 다음 시련으로서 나타난 것은 상급 던전으로 이어지는 레드 게이트였다──</t>
+  </si>
+  <si>
+    <t>2024-11-26</t>
+  </si>
+  <si>
+    <t>/vOONcAbFSVCOgct9k4JJPLbPvOi.jpg</t>
+  </si>
+  <si>
+    <t>/hlfu6g0h0D65SjkVhQBU20zePTl.jpg</t>
+  </si>
+  <si>
+    <t>28, 12, 14, 16</t>
+  </si>
+  <si>
+    <t>미키 17</t>
+  </si>
+  <si>
+    <t>Mickey 17</t>
+  </si>
+  <si>
+    <t>친구 티모와 함께 차린 마카롱 가게가 쫄딱 망해 거액의 빚을 지고 못 갚으면 죽이겠다는 사채업자를 피해 지구를 떠나야 하는 미키. 기술이 없는 그는, 정치인 마셜의 얼음행성 개척단에서 위험한 일을 도맡고, 죽으면 다시 프린트되는 익스펜더블로 지원한다. 4년의 항해와 얼음행성 니플하임에 도착한 뒤에도 늘 미키를 지켜준 여자친구 나샤. 그와 함께, 미키는 반복되는 죽음과 출력의 사이클에도 익숙해진다. 그러나 미키 17이 얼음행성의 생명체인 크리퍼와 만난 후 죽을 위기에서 돌아와 보니 이미 미키 18이 프린트되어 있다. 행성 당 1명만 허용된 익스펜더블이 둘이 된 멀티플 상황. 둘 중 하나는 죽어야 하는 현실 속에 걷잡을 수 없는 사건이 기다리고 있었으니…</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>/7KghOYtsxFquUuw4THbARsSEo6g.jpg</t>
+  </si>
+  <si>
+    <t>/qUc0Hol3eP74dbW4YyqT6oRLYgT.jpg</t>
+  </si>
+  <si>
+    <t>878, 35, 12</t>
   </si>
   <si>
     <t>달팽이의 회고록</t>
@@ -605,145 +761,25 @@
     <t>16, 18, 35</t>
   </si>
   <si>
-    <t>플랑크톤: 더 무비</t>
-  </si>
-  <si>
-    <t>Plankton: The Movie</t>
-  </si>
-  <si>
-    <t>플랑크톤과 똑똑한 인공지능 컴퓨터 부부. 어느 날 아내가 플랑크톤에게 반발해 혼자 세계 정복에 나서면서, 둘의 뒤엉킨 러브 스토리가 더 꼬이기 시작한다.</t>
-  </si>
-  <si>
-    <t>2025-03-08</t>
-  </si>
-  <si>
-    <t>/lWtKFO27sIWdbCCOkph3e8cdu06.jpg</t>
-  </si>
-  <si>
-    <t>/lsgT602GYV8ts97sKH1gWFtQs1k.jpg</t>
-  </si>
-  <si>
-    <t>16, 12, 35, 10751, 14</t>
-  </si>
-  <si>
-    <t>컴패니언</t>
-  </si>
-  <si>
-    <t>Companion</t>
-  </si>
-  <si>
-    <t>서로에게 딱 맞는 커플 ‘아이리스’와 ‘조시’는 친구들과 함께 호숫가의 별장으로 호화로운 휴가를 떠난다. 하지만 그곳에는 충격적인 사건이 기다리고 있는데…</t>
-  </si>
-  <si>
-    <t>/dq7CEYFCvQPfYIpAXOvJr3w6VLY.jpg</t>
-  </si>
-  <si>
-    <t>/wLxQPbIM0Bcz832ekTVVlDq1AHV.jpg</t>
-  </si>
-  <si>
-    <t>35, 27, 878, 53</t>
-  </si>
-  <si>
-    <t>크레이븐 더 헌터</t>
-  </si>
-  <si>
-    <t>Kraven the Hunter</t>
-  </si>
-  <si>
-    <t>죽음의 문턱에서 맹수의 초인적인 힘을 얻고 살아 돌아온 크레이븐이 무자비한 복수의 길을 택하며 거침없는 사냥을 펼치는 액션 블록버스터</t>
-  </si>
-  <si>
-    <t>2024-12-11</t>
-  </si>
-  <si>
-    <t>/bA45ooXcp2B2qnMePfZ9QDL4wR5.jpg</t>
-  </si>
-  <si>
-    <t>/v9Du2HC3hlknAvGlWhquRbeifwW.jpg</t>
-  </si>
-  <si>
-    <t>나 혼자만 레벨업 -리어웨이크닝-</t>
-  </si>
-  <si>
-    <t>俺だけレベルアップな件 -ReAwakening-</t>
-  </si>
-  <si>
-    <t>다른 차원과 이쪽 세계를 이어 주는 통로인 '게이트가' 갑자기 발생한 지 10여 년. 세계에는 '헌터'라고 불리는 초인적인 힘에 각성한 사람들이 출현했다. 헌터는 그 힘을 사용해 게이트 안의 던전을 공략하고 대가를 받는 것을 생업으로 하고 있는데 강자들만 모인 헌터들 중 '성진우'는 인류 최약병기라 불리는 저랭크 헌터로서 생활하고 있었다. 어느 날, 저랭크 던전에 숨겨진 고랭크 이중 던전에서 빈사의 중상을 입은 성진우의 눈앞에 수수께끼의 퀘스트창이 나타났다. 죽음의 순간, 퀘스트를 수락하기로 결심한 성진우는 자신만 '레벨업'할 수 있게 되는데── 전직 퀘스트를 클리어하고 그림자 병사를 부릴 수 있는 '그림자 군주'가 된 성진우의 앞에 다음 시련으로서 나타난 것은 상급 던전으로 이어지는 레드 게이트였다──</t>
-  </si>
-  <si>
-    <t>2024-11-26</t>
-  </si>
-  <si>
-    <t>/vOONcAbFSVCOgct9k4JJPLbPvOi.jpg</t>
-  </si>
-  <si>
-    <t>/hlfu6g0h0D65SjkVhQBU20zePTl.jpg</t>
-  </si>
-  <si>
-    <t>28, 12, 14, 16</t>
-  </si>
-  <si>
-    <t>미키 17</t>
-  </si>
-  <si>
-    <t>Mickey 17</t>
-  </si>
-  <si>
-    <t>친구 티모와 함께 차린 마카롱 가게가 쫄딱 망해 거액의 빚을 지고 못 갚으면 죽이겠다는 사채업자를 피해 지구를 떠나야 하는 미키. 기술이 없는 그는, 정치인 마셜의 얼음행성 개척단에서 위험한 일을 도맡고, 죽으면 다시 프린트되는 익스펜더블로 지원한다. 4년의 항해와 얼음행성 니플하임에 도착한 뒤에도 늘 미키를 지켜준 여자친구 나샤. 그와 함께, 미키는 반복되는 죽음과 출력의 사이클에도 익숙해진다. 그러나 미키 17이 얼음행성의 생명체인 크리퍼와 만난 후 죽을 위기에서 돌아와 보니 이미 미키 18이 프린트되어 있다. 행성 당 1명만 허용된 익스펜더블이 둘이 된 멀티플 상황. 둘 중 하나는 죽어야 하는 현실 속에 걷잡을 수 없는 사건이 기다리고 있었으니…</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>/7KghOYtsxFquUuw4THbARsSEo6g.jpg</t>
-  </si>
-  <si>
-    <t>/qUc0Hol3eP74dbW4YyqT6oRLYgT.jpg</t>
-  </si>
-  <si>
-    <t>878, 35, 12</t>
-  </si>
-  <si>
-    <t>플로우</t>
-  </si>
-  <si>
-    <t>Straume</t>
-  </si>
-  <si>
-    <t>인간이 살았던 흔적만이 남아있는 세상, 홀로 집을 지키던 '고양이'는 갑작스러운 대홍수로 평화롭던 일상과 아늑했던 터전을 잃고 만다. 때마침 다가온 낡은 배에 올라탄 '고양이'는 그 안에서 '골든 리트리버', '카피바라', '여우원숭이', '뱀잡이수리'를 만나고 서로의 차이점을 극복하고 팀을 이뤄 험난한 파도를 헤쳐나간다.</t>
-  </si>
-  <si>
-    <t>2024-08-29</t>
-  </si>
-  <si>
-    <t>/8ntMUYy0b0NIGWSWvMr07ui7CCJ.jpg</t>
-  </si>
-  <si>
-    <t>/zdy3h2sMppVp1Q41HpLiyF5w7es.jpg</t>
-  </si>
-  <si>
-    <t>16, 14, 12</t>
-  </si>
-  <si>
-    <t>글래디에이터 II</t>
-  </si>
-  <si>
-    <t>Gladiator II</t>
-  </si>
-  <si>
-    <t>로마의 영웅이자 최고의 검투사였던 막시무스가 콜로세움에서 죽음을 맞이한 뒤 20여 년이 흐른 후. 쌍둥이 황제 게타와 카라칼라의 폭압 아래 시민을 위한 자유로운 나라 로마의 꿈은 잊힌 지 오래다. 한편 아카시우스 장군이 이끄는 로마군에 대패한 후 모든 것을 잃고 노예로 전락한 루시우스는 강한 권력욕을 지닌 마크리누스의 눈에 띄어 검투사로 발탁된다. 로마를 향한 걷잡을 수 없는 분노, 타고난 투사의 기질로 콜로세움에 입성하게 된 루시우스는 결투를 거듭하며 자신이 진짜 누구인지 알게 되고 마침내 로마의 운명을 건 결전을 준비하게 되는데...!</t>
-  </si>
-  <si>
-    <t>2024-11-13</t>
-  </si>
-  <si>
-    <t>/b5UXjzW5cLZhprMnlAmsVAA3G4t.jpg</t>
-  </si>
-  <si>
-    <t>/8mjYwWT50GkRrrRdyHzJorfEfcl.jpg</t>
-  </si>
-  <si>
-    <t>28, 12, 18</t>
+    <t>스팅</t>
+  </si>
+  <si>
+    <t>The Sting</t>
+  </si>
+  <si>
+    <t>1930년대 시카고. 도박의 명수인 후커(로버트 레드포드)는 곤도르프(폴 뉴먼)와 손잡고 타락한 갱 두목인 로네건에게서 교묘한 방법으로 돈을 빼앗을 궁리를 한다. 최종 목표는 돈이지만 후커에게는 다른 이유도 있다. 포카와 경마를 좋아하는 로네건을 유혹해 가짜 경마장에서 돈을 빼앗고 다시 기차에서 큰 포커판을 벌이는데...</t>
+  </si>
+  <si>
+    <t>1973-12-25</t>
+  </si>
+  <si>
+    <t>/v9LHvvgAIhqpEBBjZSw116mJdmI.jpg</t>
+  </si>
+  <si>
+    <t>/1r9lH3DaSWKGyvZaoo6BF5STOk5.jpg</t>
+  </si>
+  <si>
+    <t>35, 80, 18</t>
   </si>
   <si>
     <t>베놈: 라스트 댄스</t>
@@ -801,6 +837,60 @@
   </si>
   <si>
     <t>28, 80, 18, 53</t>
+  </si>
+  <si>
+    <t>프레젠스</t>
+  </si>
+  <si>
+    <t>Presence</t>
+  </si>
+  <si>
+    <t>2025-01-16</t>
+  </si>
+  <si>
+    <t>/hZ8dTeBzigV5SVgwG1ikSROAFiS.jpg</t>
+  </si>
+  <si>
+    <t>/st9M4O4imOuQVU35RMeYuEQfkvD.jpg</t>
+  </si>
+  <si>
+    <t>27, 18</t>
+  </si>
+  <si>
+    <t>판다 플랜</t>
+  </si>
+  <si>
+    <t>熊猫计划</t>
+  </si>
+  <si>
+    <t>액션 스타 재키가 우연히 전 세계적인 인기를 한 몸에 받고 있는 ‘후후’라는 아기 판다 구출 작전에 합류하게 되면서 벌어지는 이야기</t>
+  </si>
+  <si>
+    <t>2024-10-01</t>
+  </si>
+  <si>
+    <t>/zNU7A18Py3jHArZFLH2d4WUTbMS.jpg</t>
+  </si>
+  <si>
+    <t>/u7AZ5CdT2af8buRjmYCPXNyJssd.jpg</t>
+  </si>
+  <si>
+    <t>마인크래프트 무비</t>
+  </si>
+  <si>
+    <t>A Minecraft Movie</t>
+  </si>
+  <si>
+    <t>2025-03-31</t>
+  </si>
+  <si>
+    <t>/gTv3ZXTe1TIDYeAwbniINZWqhZB.jpg</t>
+  </si>
+  <si>
+    <t>/2Nti3gYAX513wvhp8IiLL6ZDyOm.jpg</t>
+  </si>
+  <si>
+    <t>10751, 35, 12, 14</t>
   </si>
   <si>
     <t>라스트 브레스</t>
@@ -819,37 +909,58 @@
     <t>/dGULFnPJKPh0sdu3F64YmQ0qcym.jpg</t>
   </si>
   <si>
-    <t>Frogman</t>
-  </si>
-  <si>
-    <t>2024-09-26</t>
-  </si>
-  <si>
-    <t>/hgAHquo8Bt0ub0ru3QLiyrhGltW.jpg</t>
-  </si>
-  <si>
-    <t>/99XoA625Gl9Q5tBKGX1nf2g11yJ.jpg</t>
-  </si>
-  <si>
-    <t>27, 14</t>
-  </si>
-  <si>
-    <t>프레젠스</t>
-  </si>
-  <si>
-    <t>Presence</t>
-  </si>
-  <si>
-    <t>2025-01-16</t>
-  </si>
-  <si>
-    <t>/hZ8dTeBzigV5SVgwG1ikSROAFiS.jpg</t>
-  </si>
-  <si>
-    <t>/st9M4O4imOuQVU35RMeYuEQfkvD.jpg</t>
-  </si>
-  <si>
-    <t>27, 18</t>
+    <t>Henry Danger: The Movie</t>
+  </si>
+  <si>
+    <t>2025-01-17</t>
+  </si>
+  <si>
+    <t>/dFWj2rOGsqSIX1PHFghbCBgpMnk.jpg</t>
+  </si>
+  <si>
+    <t>/x8Kdi1OJbewkeGuijcSmUWrYyk2.jpg</t>
+  </si>
+  <si>
+    <t>28, 35, 10751, 878</t>
+  </si>
+  <si>
+    <t>글래디에이터 II</t>
+  </si>
+  <si>
+    <t>Gladiator II</t>
+  </si>
+  <si>
+    <t>로마의 영웅이자 최고의 검투사였던 막시무스가 콜로세움에서 죽음을 맞이한 뒤 20여 년이 흐른 후. 쌍둥이 황제 게타와 카라칼라의 폭압 아래 시민을 위한 자유로운 나라 로마의 꿈은 잊힌 지 오래다. 한편 아카시우스 장군이 이끄는 로마군에 대패한 후 모든 것을 잃고 노예로 전락한 루시우스는 강한 권력욕을 지닌 마크리누스의 눈에 띄어 검투사로 발탁된다. 로마를 향한 걷잡을 수 없는 분노, 타고난 투사의 기질로 콜로세움에 입성하게 된 루시우스는 결투를 거듭하며 자신이 진짜 누구인지 알게 되고 마침내 로마의 운명을 건 결전을 준비하게 되는데...!</t>
+  </si>
+  <si>
+    <t>2024-11-13</t>
+  </si>
+  <si>
+    <t>/b5UXjzW5cLZhprMnlAmsVAA3G4t.jpg</t>
+  </si>
+  <si>
+    <t>/8mjYwWT50GkRrrRdyHzJorfEfcl.jpg</t>
+  </si>
+  <si>
+    <t>28, 12, 18</t>
+  </si>
+  <si>
+    <t>컨트롤 프릭</t>
+  </si>
+  <si>
+    <t>Control Freak</t>
+  </si>
+  <si>
+    <t>극심한 머리 가려움증에 시달리는 동기 부여 강연자가 고향에서 유래한 기생 악마에게 감염된다.</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>/kmQb07CrOddVGV0Q73aeU4e8I18.jpg</t>
+  </si>
+  <si>
+    <t>/AflLdFIPKGQFVWhDSyedLo6aAR6.jpg</t>
   </si>
   <si>
     <t>The Bayou</t>
@@ -867,22 +978,46 @@
     <t>53, 27, 28</t>
   </si>
   <si>
-    <t>컨트롤 프릭</t>
-  </si>
-  <si>
-    <t>Control Freak</t>
-  </si>
-  <si>
-    <t>극심한 머리 가려움증에 시달리는 동기 부여 강연자가 고향에서 유래한 기생 악마에게 감염된다.</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
-    <t>/kmQb07CrOddVGV0Q73aeU4e8I18.jpg</t>
-  </si>
-  <si>
-    <t>/AflLdFIPKGQFVWhDSyedLo6aAR6.jpg</t>
+    <t>데드풀과 울버린</t>
+  </si>
+  <si>
+    <t>Deadpool &amp; Wolverine</t>
+  </si>
+  <si>
+    <t>히어로 생활에서 은퇴한 후, 평범한 중고차 딜러로 살아가던 데드풀이 예상치 못한 거대한 위기를 맞아 모든 면에서 상극인 울버린을 찾아가게 되며 펼쳐지는 도파민 폭발 액션 블록버스터.</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>/dsfAcQ5J7TPOpJgcX8R1lRBqiMK.jpg</t>
+  </si>
+  <si>
+    <t>/by8z9Fe8y7p4jo2YlW2SZDnptyT.jpg</t>
+  </si>
+  <si>
+    <t>28, 35, 878</t>
+  </si>
+  <si>
+    <t>아노라</t>
+  </si>
+  <si>
+    <t>Anora</t>
+  </si>
+  <si>
+    <t>뉴욕의 스트리퍼 아노라는 자신의 바를 찾은 철부지 러시아 재벌2세 이반을 만나게 되고 충동적인 사랑을 믿고 허황된 신분 상승을 꿈꾸며 결혼식을 올리게 된다. 그러나 신데렐라 스토리를 꿈꿨던 것도 잠시, 한 번도 본 적 없는 이반의 부모님이 아들의 결혼 사실을 알게 되자 길길이 날뛰며 미국에 있는 하수인 3인방에게 둘을 잡아 혼인무효소송을 진행할 것을 지시한다. 하수인 3인이 들이닥치자 부모님이 무서워 겁에 질린 남편 이반은 아노라를 버린채 홀로 도망친다. 이반을 찾아 결혼 생활을 유지하고 싶은 아노라와 어떻게든 이반을 찾아 혼인무효소송을 시켜야만 하는 하수인 3인방의 대환장 발악이 시작된다.</t>
+  </si>
+  <si>
+    <t>2024-10-14</t>
+  </si>
+  <si>
+    <t>/sk2JbDCTMHk14owQPm2lryV1fca.jpg</t>
+  </si>
+  <si>
+    <t>/kEYWal656zP5Q2Tohm91aw6orlT.jpg</t>
+  </si>
+  <si>
+    <t>18, 35, 10749</t>
   </si>
   <si>
     <t>Chico Bento e a Goiabeira Maraviosa</t>
@@ -900,19 +1035,25 @@
     <t>10751, 12, 35</t>
   </si>
   <si>
-    <t>Henry Danger: The Movie</t>
-  </si>
-  <si>
-    <t>2025-01-17</t>
-  </si>
-  <si>
-    <t>/dFWj2rOGsqSIX1PHFghbCBgpMnk.jpg</t>
-  </si>
-  <si>
-    <t>/x8Kdi1OJbewkeGuijcSmUWrYyk2.jpg</t>
-  </si>
-  <si>
-    <t>28, 35, 10751, 878</t>
+    <t>서브스턴스</t>
+  </si>
+  <si>
+    <t>The Substance</t>
+  </si>
+  <si>
+    <t>한때 아카데미상을 수상하고 명예의 거리까지 입성한 대스타였지만 지금은 TV 에어로빅 쇼 진행자로 전락한 엘리자베스. 50살이 되던 날, 프로듀서에게서 어리고 섹시하지 않다는 이유로 해고를 당한다. 돌아가던 길에 차 사고로 병원에 실려간 엘리자베스는 매력적인 남성 간호사로부터 서브스턴스라는 약물을 권유받는다. 한 번의 주사로 젊고 아름답고 완벽한 수가 탄생하는데...</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>/oUkeyrXvGUEylOQtlYMv9esNRiu.jpg</t>
+  </si>
+  <si>
+    <t>/t98L9uphqBSNn2Mkvdm3xSFCQyi.jpg</t>
+  </si>
+  <si>
+    <t>27, 878, 18, 35</t>
   </si>
   <si>
     <t>노보케인</t>
@@ -936,25 +1077,37 @@
     <t>28, 35, 53</t>
   </si>
   <si>
-    <t>아노라</t>
-  </si>
-  <si>
-    <t>Anora</t>
-  </si>
-  <si>
-    <t>뉴욕의 스트리퍼 아노라는 자신의 바를 찾은 철부지 러시아 재벌2세 이반을 만나게 되고 충동적인 사랑을 믿고 허황된 신분 상승을 꿈꾸며 결혼식을 올리게 된다. 그러나 신데렐라 스토리를 꿈꿨던 것도 잠시, 한 번도 본 적 없는 이반의 부모님이 아들의 결혼 사실을 알게 되자 길길이 날뛰며 미국에 있는 하수인 3인방에게 둘을 잡아 혼인무효소송을 진행할 것을 지시한다. 하수인 3인이 들이닥치자 부모님이 무서워 겁에 질린 남편 이반은 아노라를 버린채 홀로 도망친다. 이반을 찾아 결혼 생활을 유지하고 싶은 아노라와 어떻게든 이반을 찾아 혼인무효소송을 시켜야만 하는 하수인 3인방의 대환장 발악이 시작된다.</t>
-  </si>
-  <si>
-    <t>2024-10-14</t>
-  </si>
-  <si>
-    <t>/sk2JbDCTMHk14owQPm2lryV1fca.jpg</t>
-  </si>
-  <si>
-    <t>/kEYWal656zP5Q2Tohm91aw6orlT.jpg</t>
-  </si>
-  <si>
-    <t>18, 35, 10749</t>
+    <t>슈퍼배드 4</t>
+  </si>
+  <si>
+    <t>Despicable Me 4</t>
+  </si>
+  <si>
+    <t>슈트-업 하고 악당 전담 처리반 AVL이 된 에이전트 미니언즈와 미니언즈 만큼 귀여운 그루 주니어가 태어나면서 더욱 완벽해진 그루 패밀리. 이들 앞에 과거 그루의 고등학교 동창이자 그에게 체포당했던 빌런 맥심이 등장하고, 오직 그루를 향한 복수심에 불타올라 탈옥까지 감행한 맥심은 그루 패밀리의 뒤를 바짝 추격하며 위협을 가하기 시작하는데... 과연 에이전트 미니언즈와 그루 패밀리는 맥심을 막아낼 수 있을까?</t>
+  </si>
+  <si>
+    <t>/vZmCFVff9JySHTUp9zbYUIAcxzc.jpg</t>
+  </si>
+  <si>
+    <t>/lgkPzcOSnTvjeMnuFzozRO5HHw1.jpg</t>
+  </si>
+  <si>
+    <t>16, 10751, 35, 878</t>
+  </si>
+  <si>
+    <t>ช.พ.๑ สมรภูมิคืนชีพ</t>
+  </si>
+  <si>
+    <t>2024-07-20</t>
+  </si>
+  <si>
+    <t>/ymJgjrRyqJsNK67dqLv4kwvPatV.jpg</t>
+  </si>
+  <si>
+    <t>/Kj14WdD0Xqk7wZ5jXqHiyBMKtv.jpg</t>
+  </si>
+  <si>
+    <t>27, 28, 53</t>
   </si>
   <si>
     <t>The Parenting</t>
@@ -966,82 +1119,127 @@
     <t>/h4peDpoepEmErFwBeoIE4yZ1pvJ.jpg</t>
   </si>
   <si>
-    <t>데드풀과 울버린</t>
-  </si>
-  <si>
-    <t>Deadpool &amp; Wolverine</t>
-  </si>
-  <si>
-    <t>히어로 생활에서 은퇴한 후, 평범한 중고차 딜러로 살아가던 데드풀이 예상치 못한 거대한 위기를 맞아 모든 면에서 상극인 울버린을 찾아가게 되며 펼쳐지는 도파민 폭발 액션 블록버스터.</t>
-  </si>
-  <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
-    <t>/dsfAcQ5J7TPOpJgcX8R1lRBqiMK.jpg</t>
-  </si>
-  <si>
-    <t>/by8z9Fe8y7p4jo2YlW2SZDnptyT.jpg</t>
-  </si>
-  <si>
-    <t>28, 35, 878</t>
-  </si>
-  <si>
-    <t>마인크래프트 무비</t>
-  </si>
-  <si>
-    <t>A Minecraft Movie</t>
-  </si>
-  <si>
-    <t>2025-03-31</t>
-  </si>
-  <si>
-    <t>/gTv3ZXTe1TIDYeAwbniINZWqhZB.jpg</t>
-  </si>
-  <si>
-    <t>/2Nti3gYAX513wvhp8IiLL6ZDyOm.jpg</t>
-  </si>
-  <si>
-    <t>10751, 35, 12, 14</t>
-  </si>
-  <si>
-    <t>서브스턴스</t>
-  </si>
-  <si>
-    <t>The Substance</t>
-  </si>
-  <si>
-    <t>한때 아카데미상을 수상하고 명예의 거리까지 입성한 대스타였지만 지금은 TV 에어로빅 쇼 진행자로 전락한 엘리자베스. 50살이 되던 날, 프로듀서에게서 어리고 섹시하지 않다는 이유로 해고를 당한다. 돌아가던 길에 차 사고로 병원에 실려간 엘리자베스는 매력적인 남성 간호사로부터 서브스턴스라는 약물을 권유받는다. 한 번의 주사로 젊고 아름답고 완벽한 수가 탄생하는데...</t>
-  </si>
-  <si>
-    <t>2024-09-07</t>
-  </si>
-  <si>
-    <t>/oUkeyrXvGUEylOQtlYMv9esNRiu.jpg</t>
-  </si>
-  <si>
-    <t>/t98L9uphqBSNn2Mkvdm3xSFCQyi.jpg</t>
-  </si>
-  <si>
-    <t>27, 878, 18, 35</t>
-  </si>
-  <si>
-    <t>슈퍼배드 4</t>
-  </si>
-  <si>
-    <t>Despicable Me 4</t>
-  </si>
-  <si>
-    <t>슈트-업 하고 악당 전담 처리반 AVL이 된 에이전트 미니언즈와 미니언즈 만큼 귀여운 그루 주니어가 태어나면서 더욱 완벽해진 그루 패밀리. 이들 앞에 과거 그루의 고등학교 동창이자 그에게 체포당했던 빌런 맥심이 등장하고, 오직 그루를 향한 복수심에 불타올라 탈옥까지 감행한 맥심은 그루 패밀리의 뒤를 바짝 추격하며 위협을 가하기 시작하는데... 과연 에이전트 미니언즈와 그루 패밀리는 맥심을 막아낼 수 있을까?</t>
-  </si>
-  <si>
-    <t>/vZmCFVff9JySHTUp9zbYUIAcxzc.jpg</t>
-  </si>
-  <si>
-    <t>/lgkPzcOSnTvjeMnuFzozRO5HHw1.jpg</t>
-  </si>
-  <si>
-    <t>16, 10751, 35, 878</t>
+    <t>Uppercut</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>/zv4jdLV7wuQGwhwAOeD7qzd8eSF.jpg</t>
+  </si>
+  <si>
+    <t>/gxiAac3FWYJXiBmK5eGhu1OGBsD.jpg</t>
+  </si>
+  <si>
+    <t>18, 53</t>
+  </si>
+  <si>
+    <t>와일드 로봇</t>
+  </si>
+  <si>
+    <t>The Wild Robot</t>
+  </si>
+  <si>
+    <t>우연한 사고로 거대한 야생에 불시착한 로봇 로즈는 주변 동물들의 행동을 배우며 낯선 환경 속에 적응해 가던 중, 사고로 세상에 홀로 남겨진 아기 기러기 브라이트빌의 보호자가 된다. 로즈는 입력되어 있지 않은 새로운 역할과 관계에 낯선 감정을 마주하고 겨울이 오기 전에 남쪽으로 떠나야 하는 브라이트빌을 위해 동물들의 도움을 받아 이주를 위한 생존 기술을 가르쳐준다. 그러나 선천적으로 몸집이 작은 브라이트빌은 짧은 비행도 힘겨워 하는데...</t>
+  </si>
+  <si>
+    <t>2024-09-12</t>
+  </si>
+  <si>
+    <t>/8dkuf9IuVh0VZjDTk7kAY67lU0U.jpg</t>
+  </si>
+  <si>
+    <t>/mQZJoIhTEkNhCYAqcHrQqhENLdu.jpg</t>
+  </si>
+  <si>
+    <t>16, 878, 10751</t>
+  </si>
+  <si>
+    <t>알라룸</t>
+  </si>
+  <si>
+    <t>Alarum</t>
+  </si>
+  <si>
+    <t>조(스콧 이스트우드)와 로라(윌라 피츠제럴드)는 임무 중 만나 사랑에 빠진 정부 스파이 커플이다. 그들은 각자의 기관을 떠나 결혼한다.  영화는 이들의 첫 만남 5년 후, 폴란드의 한 리조트에서 휴가를 보내던 중 시작된다. 근처 숲에서 비행기 추락 사고가 발생하고, 조는 사고 현장을 조사하다 미스터리한 플래시 드라이브를 발견한다. 이 플래시 드라이브를 둘러싸고 여러 집단이 조를 공격하기 시작한다. 한 집단은 오린(마이크 콜터)이 이끄는 용병들이고, 다른 한 집단은 조의 전 소속 기관이다. 그들은 조가 글로벌 정보망을 무너뜨리려는 비밀 조직 'Alarum'에 가입했다고 의심한다. 조와 로라는 서로 헤어지게 되고, 로라가 실제로 Alarum의 일원임이 밝혀진다. 두 사람은 수많은 킬러들과 싸우며 재회를 시도합니다. 이 과정에서 체스터(실베스터 스탤론)라는 옛 동료가 등장하여 조를 제거하려 하지만, 결국 그와 함께 행동하며 폭발적인 액션을 펼치게 되는데... https://justwatch.pro/movie/1249289/alarum</t>
+  </si>
+  <si>
+    <t>/z6A7WqyKJI9COZkxKLI1hyiAhPK.jpg</t>
+  </si>
+  <si>
+    <t>/qSOMdbZ6AOdHR999HWwVAh6ALFI.jpg</t>
+  </si>
+  <si>
+    <t>나의 잘못</t>
+  </si>
+  <si>
+    <t>Culpa mía</t>
+  </si>
+  <si>
+    <t>노아는 남자 친구와 친구들이 있는 동네를 뒤로하고 엄마의 새 부자 남편 저택으로 이사를 가게 된다. 의붓오빠 닉과는 첫 만남부터 삐걱댔지만 곧 서로에게 이끌려 금지된 관계를 맺는다. 반항심과 고뇌로 가득 찬 그들의 인생은 송두리째 흔들리고 둘은 결국 뜨거운 사랑에 빠진다.</t>
+  </si>
+  <si>
+    <t>2023-06-08</t>
+  </si>
+  <si>
+    <t>/duT8Vks5FXwDkpxoR84xb2a6VB6.jpg</t>
+  </si>
+  <si>
+    <t>/oz4U9eA6ilYf1tyiVuGmkftdLac.jpg</t>
+  </si>
+  <si>
+    <t>10749, 18</t>
+  </si>
+  <si>
+    <t>María, ¡Me muero!</t>
+  </si>
+  <si>
+    <t>/u0rr4qLKx0WuKVOwV6mXBsi8l56.jpg</t>
+  </si>
+  <si>
+    <t>/pUqEyiy1L8OF7NO9Rl4bji3Zz5C.jpg</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>SOS: 메가 샤크</t>
+  </si>
+  <si>
+    <t>Shark Girl</t>
+  </si>
+  <si>
+    <t>2024-07-09</t>
+  </si>
+  <si>
+    <t>/5MLyQdtRLmlh8dxv4Fv74sdQBVD.jpg</t>
+  </si>
+  <si>
+    <t>/gmkgsEFAT7SRiOhDGXULREWN0SK.jpg</t>
+  </si>
+  <si>
+    <t>27, 53</t>
+  </si>
+  <si>
+    <t>인사이드 아웃 2</t>
+  </si>
+  <si>
+    <t>Inside Out 2</t>
+  </si>
+  <si>
+    <t>13살이 된 라일리의 행복을 위해 매일 바쁘게 머릿속 감정 컨트롤 본부를 운영하는 ‘기쁨’, ‘슬픔’, ‘버럭’, ‘까칠’, ‘소심’. 그러던 어느 날, 낯선 감정인 ‘불안’, ‘당황’, ‘따분’, ‘부럽’이가 본부에 등장하고, 언제나 최악의 상황을 대비하며 제멋대로인 ‘불안’이와 기존 감정들은 계속 충돌한다. 결국 새로운 감정들에 의해 본부에서 쫓겨나게 된 기존 감정들은 다시 본부로 돌아가기 위해 위험천만한 모험을 시작하는데…</t>
+  </si>
+  <si>
+    <t>2024-06-11</t>
+  </si>
+  <si>
+    <t>/x2BHx02jMbvpKjMvbf8XxJkYwHJ.jpg</t>
+  </si>
+  <si>
+    <t>/p5ozvmdgsmbWe0H8Xk7Rc8SCwAB.jpg</t>
+  </si>
+  <si>
+    <t>16, 12, 35, 10751</t>
   </si>
   <si>
     <t>오데사</t>
@@ -1062,70 +1260,37 @@
     <t>10402, 18, 878</t>
   </si>
   <si>
-    <t>ช.พ.๑ สมรภูมิคืนชีพ</t>
-  </si>
-  <si>
-    <t>2024-07-20</t>
-  </si>
-  <si>
-    <t>/ymJgjrRyqJsNK67dqLv4kwvPatV.jpg</t>
-  </si>
-  <si>
-    <t>/Kj14WdD0Xqk7wZ5jXqHiyBMKtv.jpg</t>
-  </si>
-  <si>
-    <t>27, 28, 53</t>
-  </si>
-  <si>
-    <t>와일드 로봇</t>
-  </si>
-  <si>
-    <t>The Wild Robot</t>
-  </si>
-  <si>
-    <t>우연한 사고로 거대한 야생에 불시착한 로봇 로즈는 주변 동물들의 행동을 배우며 낯선 환경 속에 적응해 가던 중, 사고로 세상에 홀로 남겨진 아기 기러기 브라이트빌의 보호자가 된다. 로즈는 입력되어 있지 않은 새로운 역할과 관계에 낯선 감정을 마주하고 겨울이 오기 전에 남쪽으로 떠나야 하는 브라이트빌을 위해 동물들의 도움을 받아 이주를 위한 생존 기술을 가르쳐준다. 그러나 선천적으로 몸집이 작은 브라이트빌은 짧은 비행도 힘겨워 하는데...</t>
-  </si>
-  <si>
-    <t>2024-09-12</t>
-  </si>
-  <si>
-    <t>/8dkuf9IuVh0VZjDTk7kAY67lU0U.jpg</t>
-  </si>
-  <si>
-    <t>/mQZJoIhTEkNhCYAqcHrQqhENLdu.jpg</t>
-  </si>
-  <si>
-    <t>16, 878, 10751</t>
-  </si>
-  <si>
-    <t>María, ¡Me muero!</t>
-  </si>
-  <si>
-    <t>/u0rr4qLKx0WuKVOwV6mXBsi8l56.jpg</t>
-  </si>
-  <si>
-    <t>/pUqEyiy1L8OF7NO9Rl4bji3Zz5C.jpg</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>SOS: 메가 샤크</t>
-  </si>
-  <si>
-    <t>Shark Girl</t>
-  </si>
-  <si>
-    <t>2024-07-09</t>
-  </si>
-  <si>
-    <t>/5MLyQdtRLmlh8dxv4Fv74sdQBVD.jpg</t>
-  </si>
-  <si>
-    <t>/gmkgsEFAT7SRiOhDGXULREWN0SK.jpg</t>
-  </si>
-  <si>
-    <t>27, 53</t>
+    <t>Robotia, la película</t>
+  </si>
+  <si>
+    <t>2024-06-07</t>
+  </si>
+  <si>
+    <t>/ch09yqv7K628OyITentI9LDQQCy.jpg</t>
+  </si>
+  <si>
+    <t>/bWKzdvrsrUoSt9btMESUipZ6SBf.jpg</t>
+  </si>
+  <si>
+    <t>16, 12</t>
+  </si>
+  <si>
+    <t>탈주</t>
+  </si>
+  <si>
+    <t>휴전선 인근 북한 최전방 군부대. 10년 만기 제대를 앞둔 중사 규남은 미래를 선택할 수 없는 북을 벗어나 원하는 것을 해 볼 수 있는 철책 너머로의 탈주를 준비한다. 그러나, 규남의 계획을 알아챈 하급 병사 동혁이 먼저 탈주를 시도하고, 말리려던 규남까지 졸지에 탈주병으로 체포된다. 탈주병 조사를 위해 부대로 온 보위부 소좌 현상은 어린 시절 알고 지내던 규남을 탈주병을 체포한 노력 영웅으로 둔갑시키고 사단장 직속보좌 자리까지 마련해주며 실적을 올리려 한다. 하지만 규남이 본격적인 탈출을 감행하자 현상은 물러설 길 없는 추격을 시작한다.</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>/m2pFuNkL9V4lZxtVbBzB9yrYHai.jpg</t>
+  </si>
+  <si>
+    <t>/1ApRLGSJ9ShDP1dUMAJQWbWBALz.jpg</t>
+  </si>
+  <si>
+    <t>28, 18</t>
   </si>
   <si>
     <t>Moscas</t>
@@ -1143,112 +1308,13 @@
     <t>53</t>
   </si>
   <si>
-    <t>알라룸</t>
-  </si>
-  <si>
-    <t>Alarum</t>
-  </si>
-  <si>
-    <t>조(스콧 이스트우드)와 로라(윌라 피츠제럴드)는 임무 중 만나 사랑에 빠진 정부 스파이 커플이다. 그들은 각자의 기관을 떠나 결혼한다.  영화는 이들의 첫 만남 5년 후, 폴란드의 한 리조트에서 휴가를 보내던 중 시작된다. 근처 숲에서 비행기 추락 사고가 발생하고, 조는 사고 현장을 조사하다 미스터리한 플래시 드라이브를 발견한다. 이 플래시 드라이브를 둘러싸고 여러 집단이 조를 공격하기 시작한다. 한 집단은 오린(마이크 콜터)이 이끄는 용병들이고, 다른 한 집단은 조의 전 소속 기관이다. 그들은 조가 글로벌 정보망을 무너뜨리려는 비밀 조직 'Alarum'에 가입했다고 의심한다. 조와 로라는 서로 헤어지게 되고, 로라가 실제로 Alarum의 일원임이 밝혀진다. 두 사람은 수많은 킬러들과 싸우며 재회를 시도합니다. 이 과정에서 체스터(실베스터 스탤론)라는 옛 동료가 등장하여 조를 제거하려 하지만, 결국 그와 함께 행동하며 폭발적인 액션을 펼치게 되는데... https://justwatch.pro/movie/1249289/alarum</t>
-  </si>
-  <si>
-    <t>/z6A7WqyKJI9COZkxKLI1hyiAhPK.jpg</t>
-  </si>
-  <si>
-    <t>/qSOMdbZ6AOdHR999HWwVAh6ALFI.jpg</t>
-  </si>
-  <si>
-    <t>인사이드 아웃 2</t>
-  </si>
-  <si>
-    <t>Inside Out 2</t>
-  </si>
-  <si>
-    <t>13살이 된 라일리의 행복을 위해 매일 바쁘게 머릿속 감정 컨트롤 본부를 운영하는 ‘기쁨’, ‘슬픔’, ‘버럭’, ‘까칠’, ‘소심’. 그러던 어느 날, 낯선 감정인 ‘불안’, ‘당황’, ‘따분’, ‘부럽’이가 본부에 등장하고, 언제나 최악의 상황을 대비하며 제멋대로인 ‘불안’이와 기존 감정들은 계속 충돌한다. 결국 새로운 감정들에 의해 본부에서 쫓겨나게 된 기존 감정들은 다시 본부로 돌아가기 위해 위험천만한 모험을 시작하는데…</t>
-  </si>
-  <si>
-    <t>2024-06-11</t>
-  </si>
-  <si>
-    <t>/x2BHx02jMbvpKjMvbf8XxJkYwHJ.jpg</t>
-  </si>
-  <si>
-    <t>/p5ozvmdgsmbWe0H8Xk7Rc8SCwAB.jpg</t>
-  </si>
-  <si>
-    <t>16, 12, 35, 10751</t>
-  </si>
-  <si>
-    <t>Robotia, la película</t>
-  </si>
-  <si>
-    <t>2024-06-07</t>
-  </si>
-  <si>
-    <t>/ch09yqv7K628OyITentI9LDQQCy.jpg</t>
-  </si>
-  <si>
-    <t>/bWKzdvrsrUoSt9btMESUipZ6SBf.jpg</t>
-  </si>
-  <si>
-    <t>16, 12</t>
-  </si>
-  <si>
-    <t>파이널 데스티네이션 블러드라인</t>
-  </si>
-  <si>
-    <t>Final Destination Bloodlines</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>/oS0b0iiwEW2T9vcGHFYpTlTPmuI.jpg</t>
-  </si>
-  <si>
-    <t>/bse2E5xgKcsL6w8h2efqpecvnxV.jpg</t>
-  </si>
-  <si>
-    <t>27, 9648</t>
-  </si>
-  <si>
-    <t>나의 잘못</t>
-  </si>
-  <si>
-    <t>Culpa mía</t>
-  </si>
-  <si>
-    <t>노아는 남자 친구와 친구들이 있는 동네를 뒤로하고 엄마의 새 부자 남편 저택으로 이사를 가게 된다. 의붓오빠 닉과는 첫 만남부터 삐걱댔지만 곧 서로에게 이끌려 금지된 관계를 맺는다. 반항심과 고뇌로 가득 찬 그들의 인생은 송두리째 흔들리고 둘은 결국 뜨거운 사랑에 빠진다.</t>
-  </si>
-  <si>
-    <t>2023-06-08</t>
-  </si>
-  <si>
-    <t>/duT8Vks5FXwDkpxoR84xb2a6VB6.jpg</t>
-  </si>
-  <si>
-    <t>/oz4U9eA6ilYf1tyiVuGmkftdLac.jpg</t>
-  </si>
-  <si>
-    <t>10749, 18</t>
-  </si>
-  <si>
-    <t>블랙 백</t>
-  </si>
-  <si>
-    <t>Black Bag</t>
-  </si>
-  <si>
-    <t>뛰어난 정보력과 고도의 심리전에 능통한 요원 ‘조지’와 날카로운 직관력을 가진 정보 분석가 ‘캐슬린’은 모두가 선망하는 정보국 대표 부부. 어느 날, 수천 명을 죽음에 빠트릴 수 있는 정보국의 기밀 기술이 내부 배신자에 의해 사라지고 ‘조지’는 사건에 얽힌 5명의 요원을 주목하지만 모든 증거는 그의 아내 ‘캐슬린’을 향하는데…</t>
-  </si>
-  <si>
-    <t>/5004eGQ1VsSzc9nVCg52Gw09fqI.jpg</t>
-  </si>
-  <si>
-    <t>/gxO51FVgADhYGGnnRPIlutVqb30.jpg</t>
-  </si>
-  <si>
-    <t>18, 53, 9648</t>
+    <t>Mesa de regalos</t>
+  </si>
+  <si>
+    <t>/kF99jQrV04pcb05FkREzo6SepWW.jpg</t>
+  </si>
+  <si>
+    <t>/k50zwn8Gs4f999ezuVAL2WXLv5x.jpg</t>
   </si>
   <si>
     <t>Dalia y el libro rojo</t>
@@ -1263,22 +1329,25 @@
     <t>12, 18, 14, 16</t>
   </si>
   <si>
-    <t>탈주</t>
-  </si>
-  <si>
-    <t>휴전선 인근 북한 최전방 군부대. 10년 만기 제대를 앞둔 중사 규남은 미래를 선택할 수 없는 북을 벗어나 원하는 것을 해 볼 수 있는 철책 너머로의 탈주를 준비한다. 그러나, 규남의 계획을 알아챈 하급 병사 동혁이 먼저 탈주를 시도하고, 말리려던 규남까지 졸지에 탈주병으로 체포된다. 탈주병 조사를 위해 부대로 온 보위부 소좌 현상은 어린 시절 알고 지내던 규남을 탈주병을 체포한 노력 영웅으로 둔갑시키고 사단장 직속보좌 자리까지 마련해주며 실적을 올리려 한다. 하지만 규남이 본격적인 탈출을 감행하자 현상은 물러설 길 없는 추격을 시작한다.</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>/m2pFuNkL9V4lZxtVbBzB9yrYHai.jpg</t>
-  </si>
-  <si>
-    <t>/1ApRLGSJ9ShDP1dUMAJQWbWBALz.jpg</t>
-  </si>
-  <si>
-    <t>28, 18</t>
+    <t>엘리베이션</t>
+  </si>
+  <si>
+    <t>Elevation</t>
+  </si>
+  <si>
+    <t>전 세계에서 정체 불명의 싱크홀이 발생하며, 그 속에서 나타난 괴물 "리퍼(Reaper)"가 인류의 95%를 말살한다. 리퍼는 해발 8,000피트 이상의 고지대로는 올라가지 못하는 약점을 가지고 있다. 이에 살아남은 생존자들은 고지대에 피난처를 마련하고 생존을 이어간다. 주인공 윌은 폐질환을 앓고 있는 아들 헌터를 살리기 위해, 과학자 니나와 친구 케이티와 함께 위험을 무릎쓰고 산 아래로 내려와 필요한 장비를 구하려 한다. 이 과정에서 리퍼와 맞서 싸우며 생존을 위한 여정을 이어가는데...</t>
+  </si>
+  <si>
+    <t>2024-11-07</t>
+  </si>
+  <si>
+    <t>/tnfc0NJ3BzhJrGJhkkEd6MHBdq5.jpg</t>
+  </si>
+  <si>
+    <t>/au3o84ub27qTZiMiEc9UYzN74V3.jpg</t>
+  </si>
+  <si>
+    <t>28, 878, 53</t>
   </si>
   <si>
     <t>वृंदावानी वैराग्य</t>
@@ -1294,66 +1363,6 @@
   </si>
   <si>
     <t>18</t>
-  </si>
-  <si>
-    <t>Raqa</t>
-  </si>
-  <si>
-    <t>2024-11-22</t>
-  </si>
-  <si>
-    <t>/xB40gvmC7c3XuIeITCs8ylmjHHH.jpg</t>
-  </si>
-  <si>
-    <t>/l8qohlyzfJXC6HDLfUXiSjxFptr.jpg</t>
-  </si>
-  <si>
-    <t>Mesa de regalos</t>
-  </si>
-  <si>
-    <t>/kF99jQrV04pcb05FkREzo6SepWW.jpg</t>
-  </si>
-  <si>
-    <t>/k50zwn8Gs4f999ezuVAL2WXLv5x.jpg</t>
-  </si>
-  <si>
-    <t>엘리베이션</t>
-  </si>
-  <si>
-    <t>Elevation</t>
-  </si>
-  <si>
-    <t>전 세계에서 정체 불명의 싱크홀이 발생하며, 그 속에서 나타난 괴물 "리퍼(Reaper)"가 인류의 95%를 말살한다. 리퍼는 해발 8,000피트 이상의 고지대로는 올라가지 못하는 약점을 가지고 있다. 이에 살아남은 생존자들은 고지대에 피난처를 마련하고 생존을 이어간다. 주인공 윌은 폐질환을 앓고 있는 아들 헌터를 살리기 위해, 과학자 니나와 친구 케이티와 함께 위험을 무릎쓰고 산 아래로 내려와 필요한 장비를 구하려 한다. 이 과정에서 리퍼와 맞서 싸우며 생존을 위한 여정을 이어가는데...</t>
-  </si>
-  <si>
-    <t>2024-11-07</t>
-  </si>
-  <si>
-    <t>/tnfc0NJ3BzhJrGJhkkEd6MHBdq5.jpg</t>
-  </si>
-  <si>
-    <t>/au3o84ub27qTZiMiEc9UYzN74V3.jpg</t>
-  </si>
-  <si>
-    <t>28, 878, 53</t>
-  </si>
-  <si>
-    <t>목걸이의 저주</t>
-  </si>
-  <si>
-    <t>The Curse of the Necklace</t>
-  </si>
-  <si>
-    <t>2024-09-27</t>
-  </si>
-  <si>
-    <t>/tWrYpICZChiPwRnc8SkvxBFBE3y.jpg</t>
-  </si>
-  <si>
-    <t>/4Gyp48lFkmcxu20Fs7ukhTIuzSn.jpg</t>
-  </si>
-  <si>
-    <t>27, 9648, 53</t>
   </si>
   <si>
     <t>도그맨</t>
@@ -1375,25 +1384,130 @@
     <t>10751, 16, 35, 28</t>
   </si>
   <si>
-    <t>인터스텔라</t>
-  </si>
-  <si>
-    <t>Interstellar</t>
-  </si>
-  <si>
-    <t>세계 각국의 정부와 경제가 완전히 붕괴된 미래가 다가온다. 지난 20세기에 범한 잘못이 전 세계적인 식량 부족을 불러왔고, NASA도 해체되었다. 나사 소속 우주비행사였던 쿠퍼는 지구에 몰아친 식량난으로 옥수수나 키우며 살고 있다. 거센 황사가 몰아친 어느 날 알 수 없는 힘에 이끌려 딸과 함께 도착한 곳은 인류가 이주할 행성을 찾는 나사의 비밀본부. 이 때 시공간에 불가사의한 틈이 열리고, 이 곳을 탐험해 인류를 구해야 하는 임무를 위해 쿠퍼는 만류하는 딸을 뒤로한 채 우주선에 탑승하는데...</t>
-  </si>
-  <si>
-    <t>2014-11-05</t>
-  </si>
-  <si>
-    <t>/evoEi8SBSvIIEveM3V6nCJ6vKj8.jpg</t>
-  </si>
-  <si>
-    <t>/8sNiAPPYU14PUepFNeSNGUTiHW.jpg</t>
-  </si>
-  <si>
-    <t>12, 18, 878</t>
+    <t>레드 원</t>
+  </si>
+  <si>
+    <t>Red One</t>
+  </si>
+  <si>
+    <t>크리스마스 D-1, 철통같은 보안을 뚫고 코드명 '레드 원' 산타클로스가 납치되고 크리스마스가 사라질 위기에 처했다! '레드 원'을 찾기 위해 사령관 '칼럼 드리프트'는 산타클로스 따위는 없다고 믿는 현상금 사냥꾼 '잭 오말리'와 협력하기로 한다. 시작부터 삐그덕 거리는 이들 앞에 크리스마스의 존재를 위협하는 위험천만한 적들이 나타나는데…</t>
+  </si>
+  <si>
+    <t>/4zNUNhVpSqFggxqvdSXDRzy1QwE.jpg</t>
+  </si>
+  <si>
+    <t>/rOmUuQEZfPXglwFs5ELLLUDKodL.jpg</t>
+  </si>
+  <si>
+    <t>28, 35, 14</t>
+  </si>
+  <si>
+    <t>블랙 백</t>
+  </si>
+  <si>
+    <t>Black Bag</t>
+  </si>
+  <si>
+    <t>뛰어난 정보력과 고도의 심리전에 능통한 요원 ‘조지’와 날카로운 직관력을 가진 정보 분석가 ‘캐슬린’은 모두가 선망하는 정보국 대표 부부. 어느 날, 수천 명을 죽음에 빠트릴 수 있는 정보국의 기밀 기술이 내부 배신자에 의해 사라지고 ‘조지’는 사건에 얽힌 5명의 요원을 주목하지만 모든 증거는 그의 아내 ‘캐슬린’을 향하는데…</t>
+  </si>
+  <si>
+    <t>/5004eGQ1VsSzc9nVCg52Gw09fqI.jpg</t>
+  </si>
+  <si>
+    <t>/gxO51FVgADhYGGnnRPIlutVqb30.jpg</t>
+  </si>
+  <si>
+    <t>18, 53, 9648</t>
+  </si>
+  <si>
+    <t>트리플 엑스</t>
+  </si>
+  <si>
+    <t>xXx</t>
+  </si>
+  <si>
+    <t>싸이렌이 온 거리를 울려 퍼지며 요란한 추격씬이 벌어지는 도중 한 녀석이 콜벳를 몰고 다리를 돌진, 200미터 높이에서 자동차 번지를 시도한다. 짜릿한 곡예를 선보인 후 낙하산을 펴고 유유히 사라지는 녀석의 이름은 '젠더 케이지'. 인터넷에 생방송된 이 장면은 전세계 네티즌들에게 열렬한 환호를 받는다. 또 한 번의 멋진 프로젝트로 영웅 대접을 받는 젠더 케이지. 그러나 파티가 무르익을 무렵, 갑자기 들이닥친 특수부대는 그에게 신경 안정제를 쏜 후 잠들게 한다. 깨어난 곳은 알 수 없는 레스토랑. 어리둥절한 그 곳은 갑자기 강도들의 침입장으로 돌변하고, 단숨에 상황을 정리해버린 그에게 기븐스가 축하 인사를 전한다. 미국 비밀첩보국 NSA의 1차 테스트를 통과한 것. 이후 또 다시 잠에서 깨어난 곳은 비행기 안. 2번째 테스트로 콜럼비아 마약 밀매상의 아지트에 던져진 젠더 케이지. 때마침 콜럼비아 정부와 마약상들의 충돌로 아수라장이 된 그곳에서 살아남기 위한 치열한 전쟁이 펼쳐지는데...  상황종료 후 유유히 나타난 기븐스는 NSA의 테스트를 유일하게 통과한 그에게 비밀요원이 되어줄 것을 부탁한다. 단 그렇지 않을 경우는 감옥행뿐이라는 단서를 둔다. 젠더 케이지의 코드명은 트리플 X. 첫번째 임무지는 비밀요원의 무덤이라는 별칭을 가지고 있는 도시 프라하. 이제 얼떨결에 비밀요원이 되어버린 트리플 X의 위험한 여정이 시작되는데.</t>
+  </si>
+  <si>
+    <t>2002-08-09</t>
+  </si>
+  <si>
+    <t>/xeEw3eLeSFmJgXZzmF2Efww0q3s.jpg</t>
+  </si>
+  <si>
+    <t>/qwK9soQmmJ7kRdjLZVXblw3g7AQ.jpg</t>
+  </si>
+  <si>
+    <t>28, 12, 53, 80</t>
+  </si>
+  <si>
+    <t>파이널 데스티네이션 블러드라인</t>
+  </si>
+  <si>
+    <t>Final Destination Bloodlines</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>/oS0b0iiwEW2T9vcGHFYpTlTPmuI.jpg</t>
+  </si>
+  <si>
+    <t>/bse2E5xgKcsL6w8h2efqpecvnxV.jpg</t>
+  </si>
+  <si>
+    <t>27, 9648</t>
+  </si>
+  <si>
+    <t>목걸이의 저주</t>
+  </si>
+  <si>
+    <t>The Curse of the Necklace</t>
+  </si>
+  <si>
+    <t>2024-09-27</t>
+  </si>
+  <si>
+    <t>/tWrYpICZChiPwRnc8SkvxBFBE3y.jpg</t>
+  </si>
+  <si>
+    <t>/4Gyp48lFkmcxu20Fs7ukhTIuzSn.jpg</t>
+  </si>
+  <si>
+    <t>27, 9648, 53</t>
+  </si>
+  <si>
+    <t>Raqa</t>
+  </si>
+  <si>
+    <t>2024-11-22</t>
+  </si>
+  <si>
+    <t>/xB40gvmC7c3XuIeITCs8ylmjHHH.jpg</t>
+  </si>
+  <si>
+    <t>/l8qohlyzfJXC6HDLfUXiSjxFptr.jpg</t>
+  </si>
+  <si>
+    <t>킹덤 4: 대장군의 귀환</t>
+  </si>
+  <si>
+    <t>キングダム 大将軍の帰還</t>
+  </si>
+  <si>
+    <t>때는 춘추전국시대, 천하대장군을 꿈꾸는 소년 ‘신’과 그가 이끄는 비신대는 조나라와의 전투에서 열세 끝에 승리하지만 그 기쁨도 잠시 자신을 무신이라 칭하는 조나라의 총대장 ‘방난’의 등장으로 치명상을 입고 위기에 처한다. 한편, 이 전황을 지켜보던 진나라의 총대장이자 전설의 대장군 ‘왕기’는 조나라의 계책을 눈치채고 9년 전부터 이어져온 악연 ‘방난’과의 숙명의 대결을 준비하는데…</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>/cCSkNWNtKxERBSH3cmt2pMk3nUP.jpg</t>
+  </si>
+  <si>
+    <t>/uOQgMhYyu7dkXdHoRkCqZIF32M6.jpg</t>
+  </si>
+  <si>
+    <t>28, 12</t>
   </si>
   <si>
     <t>보더라인</t>
@@ -1418,43 +1532,43 @@
     <t>35, 27, 53</t>
   </si>
   <si>
-    <t>레드 원</t>
-  </si>
-  <si>
-    <t>Red One</t>
-  </si>
-  <si>
-    <t>크리스마스 D-1, 철통같은 보안을 뚫고 코드명 '레드 원' 산타클로스가 납치되고 크리스마스가 사라질 위기에 처했다! '레드 원'을 찾기 위해 사령관 '칼럼 드리프트'는 산타클로스 따위는 없다고 믿는 현상금 사냥꾼 '잭 오말리'와 협력하기로 한다. 시작부터 삐그덕 거리는 이들 앞에 크리스마스의 존재를 위협하는 위험천만한 적들이 나타나는데…</t>
-  </si>
-  <si>
-    <t>/4zNUNhVpSqFggxqvdSXDRzy1QwE.jpg</t>
-  </si>
-  <si>
-    <t>/rOmUuQEZfPXglwFs5ELLLUDKodL.jpg</t>
-  </si>
-  <si>
-    <t>28, 35, 14</t>
-  </si>
-  <si>
-    <t>트리플 엑스</t>
-  </si>
-  <si>
-    <t>xXx</t>
-  </si>
-  <si>
-    <t>싸이렌이 온 거리를 울려 퍼지며 요란한 추격씬이 벌어지는 도중 한 녀석이 콜벳를 몰고 다리를 돌진, 200미터 높이에서 자동차 번지를 시도한다. 짜릿한 곡예를 선보인 후 낙하산을 펴고 유유히 사라지는 녀석의 이름은 '젠더 케이지'. 인터넷에 생방송된 이 장면은 전세계 네티즌들에게 열렬한 환호를 받는다. 또 한 번의 멋진 프로젝트로 영웅 대접을 받는 젠더 케이지. 그러나 파티가 무르익을 무렵, 갑자기 들이닥친 특수부대는 그에게 신경 안정제를 쏜 후 잠들게 한다. 깨어난 곳은 알 수 없는 레스토랑. 어리둥절한 그 곳은 갑자기 강도들의 침입장으로 돌변하고, 단숨에 상황을 정리해버린 그에게 기븐스가 축하 인사를 전한다. 미국 비밀첩보국 NSA의 1차 테스트를 통과한 것. 이후 또 다시 잠에서 깨어난 곳은 비행기 안. 2번째 테스트로 콜럼비아 마약 밀매상의 아지트에 던져진 젠더 케이지. 때마침 콜럼비아 정부와 마약상들의 충돌로 아수라장이 된 그곳에서 살아남기 위한 치열한 전쟁이 펼쳐지는데...  상황종료 후 유유히 나타난 기븐스는 NSA의 테스트를 유일하게 통과한 그에게 비밀요원이 되어줄 것을 부탁한다. 단 그렇지 않을 경우는 감옥행뿐이라는 단서를 둔다. 젠더 케이지의 코드명은 트리플 X. 첫번째 임무지는 비밀요원의 무덤이라는 별칭을 가지고 있는 도시 프라하. 이제 얼떨결에 비밀요원이 되어버린 트리플 X의 위험한 여정이 시작되는데.</t>
-  </si>
-  <si>
-    <t>2002-08-09</t>
-  </si>
-  <si>
-    <t>/xeEw3eLeSFmJgXZzmF2Efww0q3s.jpg</t>
-  </si>
-  <si>
-    <t>/qwK9soQmmJ7kRdjLZVXblw3g7AQ.jpg</t>
-  </si>
-  <si>
-    <t>28, 12, 53, 80</t>
+    <t>대부</t>
+  </si>
+  <si>
+    <t>The Godfather</t>
+  </si>
+  <si>
+    <t>시실리에서 이민온 뒤, 정치권까지 영향력을 미치는 거물로 자리잡은 돈 꼴레오네는 갖가지 고민을 호소하는 사람들의 문제를 해결해주며 대부라 불리운다. 한편 솔로소라는 인물은 꼴레오네가와 라이벌인 탓타리아 패밀리와 손잡고 새로운 마약 사업을 제안한다. 돈 꼴레오네가 마약 사업에 참여하지 않기로 하자, 돈 꼴레오네를 저격해 그는 중상을 입고 사경을 헤매게 된다. 그 뒤, 돈 꼴레오네의 아들 소니는 조직력을 총 동원해 다른 패밀리들과 피를 부르는 전쟁을 시작하는데... 가족의 사업과 상관없이 대학에 진학한 뒤 인텔리로 지내왔던 막내 아들 마이클은 아버지가 총격을 당한 뒤, 아버지를 구하기 위해 위험천만한 협상 자리에 나선다.</t>
+  </si>
+  <si>
+    <t>1972-03-14</t>
+  </si>
+  <si>
+    <t>/I1fkNd5CeJGv56mhrTDoOeMc2r.jpg</t>
+  </si>
+  <si>
+    <t>/tmU7GeKVybMWFButWEGl2M4GeiP.jpg</t>
+  </si>
+  <si>
+    <t>18, 80</t>
+  </si>
+  <si>
+    <t>Pídeme lo que quieras</t>
+  </si>
+  <si>
+    <t>2024-11-29</t>
+  </si>
+  <si>
+    <t>/76qnVxU2rPdVvipBN3DPQH6fVYB.jpg</t>
+  </si>
+  <si>
+    <t>Anastasia</t>
+  </si>
+  <si>
+    <t>1953-07-12</t>
+  </si>
+  <si>
+    <t>18, 10770</t>
   </si>
   <si>
     <t>ปล้นทะลุไมล์</t>
@@ -1469,6 +1583,27 @@
     <t>/aqMBEpd4kC8GpUg6761qFPkvQuS.jpg</t>
   </si>
   <si>
+    <t>인터스텔라</t>
+  </si>
+  <si>
+    <t>Interstellar</t>
+  </si>
+  <si>
+    <t>세계 각국의 정부와 경제가 완전히 붕괴된 미래가 다가온다. 지난 20세기에 범한 잘못이 전 세계적인 식량 부족을 불러왔고, NASA도 해체되었다. 나사 소속 우주비행사였던 쿠퍼는 지구에 몰아친 식량난으로 옥수수나 키우며 살고 있다. 거센 황사가 몰아친 어느 날 알 수 없는 힘에 이끌려 딸과 함께 도착한 곳은 인류가 이주할 행성을 찾는 나사의 비밀본부. 이 때 시공간에 불가사의한 틈이 열리고, 이 곳을 탐험해 인류를 구해야 하는 임무를 위해 쿠퍼는 만류하는 딸을 뒤로한 채 우주선에 탑승하는데...</t>
+  </si>
+  <si>
+    <t>2014-11-05</t>
+  </si>
+  <si>
+    <t>/evoEi8SBSvIIEveM3V6nCJ6vKj8.jpg</t>
+  </si>
+  <si>
+    <t>/8sNiAPPYU14PUepFNeSNGUTiHW.jpg</t>
+  </si>
+  <si>
+    <t>12, 18, 878</t>
+  </si>
+  <si>
     <t>위키드</t>
   </si>
   <si>
@@ -1488,6 +1623,84 @@
   </si>
   <si>
     <t>18, 10749, 14</t>
+  </si>
+  <si>
+    <t>백 인 액션</t>
+  </si>
+  <si>
+    <t>Back in Action</t>
+  </si>
+  <si>
+    <t>평범한 가정을 꾸리기 위해 CIA를 떠났던 두 엘리트 첩보 요원 맷과 에밀리. 그런데 15년 만에 신분이 들통나면서 다시 스파이의 세계로 뛰어들게 된다.</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>/7FlD5tJbYVtyJkRnhvGYqsMQVou.jpg</t>
+  </si>
+  <si>
+    <t>/mkxGpqh4yOYqtENv01IrDcesFRf.jpg</t>
+  </si>
+  <si>
+    <t>데바라</t>
+  </si>
+  <si>
+    <t>దేవర: Part 1</t>
+  </si>
+  <si>
+    <t>전사의 후예들이 밀수꾼으로 전락하고 말았다. 마을의 명예를 회복하려는 리더의 핏빛 대장정을 그린 영화.</t>
+  </si>
+  <si>
+    <t>/q9e5viGsiNXMpEKtr8KrL4rQmVW.jpg</t>
+  </si>
+  <si>
+    <t>/hAQnXxOwCjgYcKRgTdYPRC8neqL.jpg</t>
+  </si>
+  <si>
+    <t>네 잘못이야</t>
+  </si>
+  <si>
+    <t>Culpa tuya</t>
+  </si>
+  <si>
+    <t>전 세계적인 히트작 '나의 잘못'의 속편. 노아와 닉의 사랑은 둘을 떼어놓으려는 부모님의 노력에도 불구하고 흔들림이 없어 보인다. 하지만 닉의 직업과 노아의 대학 진학은 두 사람의 관계와 레이스테르 가족의 근간을 흔들 새로운 관계로 그들의 삶을 안내한다. 많은 사람이 두 사람 사이를 파괴하려는 가운데 이 둘은 결국 행복을 맞이할 수 있을까?</t>
+  </si>
+  <si>
+    <t>2024-12-26</t>
+  </si>
+  <si>
+    <t>/zuctS3p8Bs9IeYv5ScKeOKp5Na5.jpg</t>
+  </si>
+  <si>
+    <t>/k24eZq5I3jyz4htPkZCRpnUmBzE.jpg</t>
+  </si>
+  <si>
+    <t>Le Jardinier</t>
+  </si>
+  <si>
+    <t>2025-01-30</t>
+  </si>
+  <si>
+    <t>/qxqwLXgd4vjouSsxKXbGhQyjwoa.jpg</t>
+  </si>
+  <si>
+    <t>/pqulyfkug9A7TmmRn5zrbRA8TAY.jpg</t>
+  </si>
+  <si>
+    <t>나의 잘못: 런던</t>
+  </si>
+  <si>
+    <t>My Fault: London</t>
+  </si>
+  <si>
+    <t>영국의 부유한 사업가 윌리엄과 최근 사랑에 빠진 엄마를 따라 미국에서 영국으로 거처를 옮긴 18세 노아는 윌리엄의 불량한 아들 닉을 만나게 되고 둘은 서로에게 거부할 수 없는 매력을 느낀다. 여름 내내 노아는 새로운 생활에 적응하며 처음으로 사랑에 빠지지만 과거의 괴로운 기억이 노아의 발목을 잡는다.</t>
+  </si>
+  <si>
+    <t>/h7H6Kd9kX1dvN8FZjUy6FcNdXxQ.jpg</t>
+  </si>
+  <si>
+    <t>/uJK0jjJ8QDOQw5lcNBwu059ht4D.jpg</t>
   </si>
   <si>
     <t>버드</t>
@@ -1512,6 +1725,90 @@
     <t>18, 14</t>
   </si>
   <si>
+    <t>Piglet</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>/5wZNFUJAwyX6RCxdqrLO9lLWJ20.jpg</t>
+  </si>
+  <si>
+    <t>/tehewlwOPFDDf4syutyopaY23AY.jpg</t>
+  </si>
+  <si>
+    <t>گلاس ورکر</t>
+  </si>
+  <si>
+    <t>2024-07-26</t>
+  </si>
+  <si>
+    <t>/gWdMPoQO54vYaFWrmUg3pbpAVFi.jpg</t>
+  </si>
+  <si>
+    <t>/wNfo4jTlzLPcWc68xxw8VnBJjae.jpg</t>
+  </si>
+  <si>
+    <t>16, 10751, 10749, 10752</t>
+  </si>
+  <si>
+    <t>노스페라투</t>
+  </si>
+  <si>
+    <t>Nosferatu</t>
+  </si>
+  <si>
+    <t>오랜 시간 통제할 수 없는 강력한 힘에 이끌려 악몽과 괴로움에 시달려 온 엘렌. 남편 토마스가 거액의 부동산 계약을 위해 머나먼 올록성으로 떠난 후부터 엘렌은 불안 증세가 심해지고 알 수 없는 말을 되뇌인다. 기이한 현상들이 일어나며 마을로 점점 짙게 번져오는 그림자. 영원한 어둠 속에서 깨어난 올록 백작이 찾아오는데…</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>/xeiARSpxGdVCw5KkCDgj31MO45o.jpg</t>
+  </si>
+  <si>
+    <t>/uWOJbarUXfVf6B4o0368dh138eR.jpg</t>
+  </si>
+  <si>
+    <t>14, 27</t>
+  </si>
+  <si>
+    <t>스나이퍼: 최후의 전쟁</t>
+  </si>
+  <si>
+    <t>Sniper: The Last Stand</t>
+  </si>
+  <si>
+    <t>치명적인 불법 무기를 제거하라. 적지에 침투한 전설적인 저격수 베켓과 전우들은 막강한 화력의 민병대에 맞서 인류를 구하기 위해 모든 어려움을 극복하고 살아남아야 한다.</t>
+  </si>
+  <si>
+    <t>2025-01-21</t>
+  </si>
+  <si>
+    <t>/TVvIyCsFCmLk9MRLbAZi4X8f32.jpg</t>
+  </si>
+  <si>
+    <t>/ybSA7fUbYHw8VeRiSJ7tgKJnYWZ.jpg</t>
+  </si>
+  <si>
+    <t>앱솔루션</t>
+  </si>
+  <si>
+    <t>Absolution</t>
+  </si>
+  <si>
+    <t>보스턴 범죄 조직의 보스를 위해 근육질로 일하는 나이 든 전직 권투 갱스터가 충격적인 진단을 받습니다. 기억이 흐릿해짐에도 불구하고 그는 과거의 죄를 바로잡고 소원해진 자녀들과 잘 지내려고 노력합니다. 그는 손자에게 긍정적인 유산을 남기기로 결심하지만 범죄 조직은 그를 끝내 놓아주지 않고 그들의 손아귀에서 놓아주지 않습니다.</t>
+  </si>
+  <si>
+    <t>/gt70JOD9xsPlpJnuBJAWdOT4yRg.jpg</t>
+  </si>
+  <si>
+    <t>/7bIWKyWdT04HTY3PqLETT8CH7jo.jpg</t>
+  </si>
+  <si>
+    <t>28, 80, 53, 9648</t>
+  </si>
+  <si>
     <t>Boreal</t>
   </si>
   <si>
@@ -1522,291 +1819,6 @@
   </si>
   <si>
     <t>/ui4dBmUqkPGje4Z5Ds0kHaM26E3.jpg</t>
-  </si>
-  <si>
-    <t>백 인 액션</t>
-  </si>
-  <si>
-    <t>Back in Action</t>
-  </si>
-  <si>
-    <t>평범한 가정을 꾸리기 위해 CIA를 떠났던 두 엘리트 첩보 요원 맷과 에밀리. 그런데 15년 만에 신분이 들통나면서 다시 스파이의 세계로 뛰어들게 된다.</t>
-  </si>
-  <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>/7FlD5tJbYVtyJkRnhvGYqsMQVou.jpg</t>
-  </si>
-  <si>
-    <t>/mkxGpqh4yOYqtENv01IrDcesFRf.jpg</t>
-  </si>
-  <si>
-    <t>Pídeme lo que quieras</t>
-  </si>
-  <si>
-    <t>2024-11-29</t>
-  </si>
-  <si>
-    <t>/76qnVxU2rPdVvipBN3DPQH6fVYB.jpg</t>
-  </si>
-  <si>
-    <t>Le Jardinier</t>
-  </si>
-  <si>
-    <t>2025-01-30</t>
-  </si>
-  <si>
-    <t>/qxqwLXgd4vjouSsxKXbGhQyjwoa.jpg</t>
-  </si>
-  <si>
-    <t>/pqulyfkug9A7TmmRn5zrbRA8TAY.jpg</t>
-  </si>
-  <si>
-    <t>데바라</t>
-  </si>
-  <si>
-    <t>దేవర: Part 1</t>
-  </si>
-  <si>
-    <t>전사의 후예들이 밀수꾼으로 전락하고 말았다. 마을의 명예를 회복하려는 리더의 핏빛 대장정을 그린 영화.</t>
-  </si>
-  <si>
-    <t>/q9e5viGsiNXMpEKtr8KrL4rQmVW.jpg</t>
-  </si>
-  <si>
-    <t>/hAQnXxOwCjgYcKRgTdYPRC8neqL.jpg</t>
-  </si>
-  <si>
-    <t>노스페라투</t>
-  </si>
-  <si>
-    <t>Nosferatu</t>
-  </si>
-  <si>
-    <t>오랜 시간 통제할 수 없는 강력한 힘에 이끌려 악몽과 괴로움에 시달려 온 엘렌. 남편 토마스가 거액의 부동산 계약을 위해 머나먼 올록성으로 떠난 후부터 엘렌은 불안 증세가 심해지고 알 수 없는 말을 되뇌인다. 기이한 현상들이 일어나며 마을로 점점 짙게 번져오는 그림자. 영원한 어둠 속에서 깨어난 올록 백작이 찾아오는데…</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
-  </si>
-  <si>
-    <t>/xeiARSpxGdVCw5KkCDgj31MO45o.jpg</t>
-  </si>
-  <si>
-    <t>/uWOJbarUXfVf6B4o0368dh138eR.jpg</t>
-  </si>
-  <si>
-    <t>14, 27</t>
-  </si>
-  <si>
-    <t>나의 잘못: 런던</t>
-  </si>
-  <si>
-    <t>My Fault: London</t>
-  </si>
-  <si>
-    <t>영국의 부유한 사업가 윌리엄과 최근 사랑에 빠진 엄마를 따라 미국에서 영국으로 거처를 옮긴 18세 노아는 윌리엄의 불량한 아들 닉을 만나게 되고 둘은 서로에게 거부할 수 없는 매력을 느낀다. 여름 내내 노아는 새로운 생활에 적응하며 처음으로 사랑에 빠지지만 과거의 괴로운 기억이 노아의 발목을 잡는다.</t>
-  </si>
-  <si>
-    <t>/h7H6Kd9kX1dvN8FZjUy6FcNdXxQ.jpg</t>
-  </si>
-  <si>
-    <t>/uJK0jjJ8QDOQw5lcNBwu059ht4D.jpg</t>
-  </si>
-  <si>
-    <t>앱솔루션</t>
-  </si>
-  <si>
-    <t>Absolution</t>
-  </si>
-  <si>
-    <t>보스턴 범죄 조직의 보스를 위해 근육질로 일하는 나이 든 전직 권투 갱스터가 충격적인 진단을 받습니다. 기억이 흐릿해짐에도 불구하고 그는 과거의 죄를 바로잡고 소원해진 자녀들과 잘 지내려고 노력합니다. 그는 손자에게 긍정적인 유산을 남기기로 결심하지만 범죄 조직은 그를 끝내 놓아주지 않고 그들의 손아귀에서 놓아주지 않습니다.</t>
-  </si>
-  <si>
-    <t>/gt70JOD9xsPlpJnuBJAWdOT4yRg.jpg</t>
-  </si>
-  <si>
-    <t>/7bIWKyWdT04HTY3PqLETT8CH7jo.jpg</t>
-  </si>
-  <si>
-    <t>28, 80, 53, 9648</t>
-  </si>
-  <si>
-    <t>헤레틱</t>
-  </si>
-  <si>
-    <t>Heretic</t>
-  </si>
-  <si>
-    <t>외딴 집을 찾은 신앙심 깊은 두 소녀에게 집주인은 믿음을 뒤흔드는 이야기를 꺼낸다. 무언가 의심스럽다고 느끼는 순간, 두 소녀는 꼼짝없이 집안에 갇히게 된다. 친절했던 남자는 돌변하고, 그녀들은 살기 위해 위험한 선택을 하는데…</t>
-  </si>
-  <si>
-    <t>/z2ALWuQ2WwjzuJJiAfNsF8A7T2b.jpg</t>
-  </si>
-  <si>
-    <t>/ag66gJCiZ06q1GSJuQlhGLi3Udx.jpg</t>
-  </si>
-  <si>
-    <t>Tú no eres yo</t>
-  </si>
-  <si>
-    <t>/6iwEwAEo4gu4e29Lj618vMQSMpL.jpg</t>
-  </si>
-  <si>
-    <t>/sdAGwNLBMUikx185k8IJ9XJl32B.jpg</t>
-  </si>
-  <si>
-    <t>18, 27, 53</t>
-  </si>
-  <si>
-    <t>미라클 월드 런던: 시간의 끝에서</t>
-  </si>
-  <si>
-    <t>Miraculous World : Londres, la course contre le temps</t>
-  </si>
-  <si>
-    <t>끔찍한 운명을 맞이할 미래를 구하고자, 마리네뜨는 크로노버그가 되어 버닉스와 함께 시간을 여행하는 의문의 적을 물리치려 한다. 이 새로운 슈퍼 악당은 누구이며, 왜 이들은 마리네뜨의 은밀한 슈퍼히어로 정체성을 폭로하는 데 집착하는 걸까? 새로운 상대를 물리치고 레이디버그와 시간이 끝나는 걸 막는 것만이 마리네뜨의 유일한 희망이다!</t>
-  </si>
-  <si>
-    <t>2024-11-14</t>
-  </si>
-  <si>
-    <t>/vKLi7Q2Rw4Q4ppZGWWhMEwcyDdA.jpg</t>
-  </si>
-  <si>
-    <t>/cBTwQKMd7Vn6rGTGBtoFLIfj7uM.jpg</t>
-  </si>
-  <si>
-    <t>16, 12, 28, 14</t>
-  </si>
-  <si>
-    <t>گلاس ورکر</t>
-  </si>
-  <si>
-    <t>2024-07-26</t>
-  </si>
-  <si>
-    <t>/gWdMPoQO54vYaFWrmUg3pbpAVFi.jpg</t>
-  </si>
-  <si>
-    <t>/wNfo4jTlzLPcWc68xxw8VnBJjae.jpg</t>
-  </si>
-  <si>
-    <t>16, 10751, 10749, 10752</t>
-  </si>
-  <si>
-    <t>Piglet</t>
-  </si>
-  <si>
-    <t>2025-01-25</t>
-  </si>
-  <si>
-    <t>/5wZNFUJAwyX6RCxdqrLO9lLWJ20.jpg</t>
-  </si>
-  <si>
-    <t>/tehewlwOPFDDf4syutyopaY23AY.jpg</t>
-  </si>
-  <si>
-    <t>진격의 거인 더 라스트 어택</t>
-  </si>
-  <si>
-    <t>劇場版「進撃の巨人」完結編 THE LAST ATTACK</t>
-  </si>
-  <si>
-    <t>거인의 위협으로부터 몸을 지키기 위해 거대한 벽을 쌓고 그 안에서 숨을 죽이고 살고 있는 인류. 백 년의 평화는 초대형 거인의 습격으로 파괴됐고, 어머니를 잃은 소년 엘런 예거는 모든 거인을 없앨 것을 맹세하고 거인과 싸우는 조사병단의 일원이 되었다. 글자 그대로 목숨을 건 싸움 속에서 엘런 예거는 자신도 거인이 되는 능력을 손에 넣었고 인류의 승리에 공헌하면서 조금씩 세계의 진실에 가까워지고 있었다. 이윽고 시간이 흘러 벽 밖으로 나간 엘런은 조사병단의 동료들과 갈라섰고 어떤 무시무시한 계획을 실행한다. 수많은 거인을 이끌고, 이 세계의 살아있는 모든 것들을 짓밟는 「땅울림」. 미카사와 아르민을 시작으로 남겨진 자들은 세계를 멸망시키려 하는 엘런을 막기 위해 최후의 싸움에 나선다.</t>
-  </si>
-  <si>
-    <t>/wac6EcDASfgoaZl00bkpTgBn0Dw.jpg</t>
-  </si>
-  <si>
-    <t>/sl5rXSyMTzK5WkpRO9oVIkqr6DE.jpg</t>
-  </si>
-  <si>
-    <t>16, 28, 12, 14</t>
-  </si>
-  <si>
-    <t>어벤져스: 인피니티 워</t>
-  </si>
-  <si>
-    <t>Avengers: Infinity War</t>
-  </si>
-  <si>
-    <t>타노스는 6개의 인피니티 스톤을 획득해 신으로 군림하려 한다. 그것은 곧 인류의 절반을 학살해 우주의 균형을 맞추겠다는 뜻. 타노스는 닥터 스트레인지가 소유한 타임 스톤, 비전의 이마에 박혀 있는 마인드 스톤을 차지하기 위해 지구를 침략한다. 아이언맨과 스파이더맨은 가디언즈 오브 갤럭시의 멤버들과 타노스를 상대한다. 지구에선 캡틴 아메리카, 완다, 블랙 위도우, 블랙 팬서 등이 비전을 지키기 위해 뭉친다.</t>
-  </si>
-  <si>
-    <t>2018-04-25</t>
-  </si>
-  <si>
-    <t>/kmP6viwzcEkZeoi1LaVcQemcvZh.jpg</t>
-  </si>
-  <si>
-    <t>/mDfJG3LC3Dqb67AZ52x3Z0jU0uB.jpg</t>
-  </si>
-  <si>
-    <t>12, 28, 878</t>
-  </si>
-  <si>
-    <t>대부</t>
-  </si>
-  <si>
-    <t>The Godfather</t>
-  </si>
-  <si>
-    <t>시실리에서 이민온 뒤, 정치권까지 영향력을 미치는 거물로 자리잡은 돈 꼴레오네는 갖가지 고민을 호소하는 사람들의 문제를 해결해주며 대부라 불리운다. 한편 솔로소라는 인물은 꼴레오네가와 라이벌인 탓타리아 패밀리와 손잡고 새로운 마약 사업을 제안한다. 돈 꼴레오네가 마약 사업에 참여하지 않기로 하자, 돈 꼴레오네를 저격해 그는 중상을 입고 사경을 헤매게 된다. 그 뒤, 돈 꼴레오네의 아들 소니는 조직력을 총 동원해 다른 패밀리들과 피를 부르는 전쟁을 시작하는데... 가족의 사업과 상관없이 대학에 진학한 뒤 인텔리로 지내왔던 막내 아들 마이클은 아버지가 총격을 당한 뒤, 아버지를 구하기 위해 위험천만한 협상 자리에 나선다.</t>
-  </si>
-  <si>
-    <t>1972-03-14</t>
-  </si>
-  <si>
-    <t>/I1fkNd5CeJGv56mhrTDoOeMc2r.jpg</t>
-  </si>
-  <si>
-    <t>/tmU7GeKVybMWFButWEGl2M4GeiP.jpg</t>
-  </si>
-  <si>
-    <t>18, 80</t>
-  </si>
-  <si>
-    <t>나니아 연대기: 사자, 마녀 그리고 옷장</t>
-  </si>
-  <si>
-    <t>The Chronicles of Narnia: The Lion, the Witch and the Wardrobe</t>
-  </si>
-  <si>
-    <t>제2차 세계대전 중의 영국. 공습을 피해 디고리 교수의 시골 별장으로 간 페번시가의 네 남매인 피터, 수잔, 에드먼드, 루시는 마법의 옷장을 통해 신비로운 나라 나니아로 들어선다. 말하는 동물들과 켄타우로스, 거인들이 평화롭게 어울려 사는 땅이었던 나니아는 사악한 하얀 마녀 제이디스에 의해 긴 겨울에 감금되어 있다. 게다가 이 겨울에는 크리스마스도 없다. 호기심 많은 루시, 퉁명스러운 에드먼드, 신중한 수잔, 분별 있는 맏이 피터는 고귀한 사자 아슬란의 인도로 제이디스의 싸늘한 주문을 깨는 싸움에 가담한다.</t>
-  </si>
-  <si>
-    <t>2005-12-07</t>
-  </si>
-  <si>
-    <t>/vSY6MgDWD5Ch5I87X8BaxZyydCI.jpg</t>
-  </si>
-  <si>
-    <t>/AuV99eQivVWuk2AOSM6hYh9QRPQ.jpg</t>
-  </si>
-  <si>
-    <t>12, 10751, 14</t>
-  </si>
-  <si>
-    <t>토네이도: 폭풍에 갇히다</t>
-  </si>
-  <si>
-    <t>The Twister: Caught in the Storm</t>
-  </si>
-  <si>
-    <t>2011년 5월, 강력한 토네이도가 미주리주 조플린을 휩쓸었다. 손에 땀을 쥐게 하는 생생한 당시 영상을 바탕으로, 치명적인 토네이도 속으로 들어가는 다큐멘터리.</t>
-  </si>
-  <si>
-    <t>2025-03-18</t>
-  </si>
-  <si>
-    <t>/xu7JiLVSXW0PSLCJMwqLKAAJGM2.jpg</t>
-  </si>
-  <si>
-    <t>/m4FEubjmtytpMDchQfDmbJKHOG6.jpg</t>
-  </si>
-  <si>
-    <t>99</t>
   </si>
 </sst>
 </file>
@@ -2232,45 +2244,45 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1125899</v>
+        <v>1165067</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2">
+        <v>575.5696</v>
+      </c>
+      <c r="I2">
+        <v>3.3</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
-      </c>
-      <c r="H2">
-        <v>459.5805</v>
-      </c>
-      <c r="I2">
-        <v>6.275</v>
-      </c>
-      <c r="J2">
-        <v>71</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1165067</v>
+        <v>1125899</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -2288,13 +2300,13 @@
         <v>22</v>
       </c>
       <c r="H3">
-        <v>503.4688</v>
+        <v>532.5785</v>
       </c>
       <c r="I3">
-        <v>3.3</v>
+        <v>6.377</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="K3" t="s">
         <v>23</v>
@@ -2323,13 +2335,13 @@
         <v>29</v>
       </c>
       <c r="H4">
-        <v>383.5943</v>
+        <v>433.031</v>
       </c>
       <c r="I4">
         <v>6.1</v>
       </c>
       <c r="J4">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
@@ -2358,7 +2370,7 @@
         <v>36</v>
       </c>
       <c r="H5">
-        <v>361.2718</v>
+        <v>410.9443</v>
       </c>
       <c r="I5">
         <v>8.6</v>
@@ -2393,13 +2405,13 @@
         <v>43</v>
       </c>
       <c r="H6">
-        <v>263.9239</v>
+        <v>288.0587</v>
       </c>
       <c r="I6">
         <v>4.5</v>
       </c>
       <c r="J6">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="K6" t="s">
         <v>44</v>
@@ -2416,7 +2428,7 @@
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
@@ -2428,7 +2440,7 @@
         <v>48</v>
       </c>
       <c r="H7">
-        <v>225.8111</v>
+        <v>243.0195</v>
       </c>
       <c r="I7">
         <v>7.6</v>
@@ -2463,13 +2475,13 @@
         <v>55</v>
       </c>
       <c r="H8">
-        <v>220.061</v>
+        <v>241.9466</v>
       </c>
       <c r="I8">
-        <v>6.645</v>
+        <v>6.637</v>
       </c>
       <c r="J8">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s">
         <v>56</v>
@@ -2477,7 +2489,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>762509</v>
+        <v>1241982</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
@@ -2498,13 +2510,13 @@
         <v>62</v>
       </c>
       <c r="H9">
-        <v>168.1341</v>
+        <v>215.4247</v>
       </c>
       <c r="I9">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="J9">
-        <v>1726</v>
+        <v>2069</v>
       </c>
       <c r="K9" t="s">
         <v>63</v>
@@ -2512,7 +2524,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1241982</v>
+        <v>1356039</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -2533,13 +2545,13 @@
         <v>69</v>
       </c>
       <c r="H10">
-        <v>190.9832</v>
+        <v>191.7685</v>
       </c>
       <c r="I10">
-        <v>7.1</v>
+        <v>8.46</v>
       </c>
       <c r="J10">
-        <v>2059</v>
+        <v>550</v>
       </c>
       <c r="K10" t="s">
         <v>70</v>
@@ -2547,72 +2559,72 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1388366</v>
+        <v>762509</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H11">
-        <v>160.6976</v>
+        <v>215.758</v>
       </c>
       <c r="I11">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>1741</v>
       </c>
       <c r="K11" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1356039</v>
+        <v>1388366</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12">
-        <v>170.4505</v>
+        <v>194.206</v>
       </c>
       <c r="I12">
-        <v>8.48</v>
+        <v>5.4</v>
       </c>
       <c r="J12">
-        <v>544</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2638,13 +2650,13 @@
         <v>87</v>
       </c>
       <c r="H13">
-        <v>157.8018</v>
+        <v>166.7941</v>
       </c>
       <c r="I13">
-        <v>6.6</v>
+        <v>6.581</v>
       </c>
       <c r="J13">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="K13" t="s">
         <v>88</v>
@@ -2661,7 +2673,7 @@
         <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
         <v>90</v>
@@ -2673,7 +2685,7 @@
         <v>92</v>
       </c>
       <c r="H14">
-        <v>140.9359</v>
+        <v>157.2845</v>
       </c>
       <c r="I14">
         <v>5.5</v>
@@ -2687,7 +2699,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>950396</v>
+        <v>1151470</v>
       </c>
       <c r="B15" t="s">
         <v>94</v>
@@ -2708,13 +2720,13 @@
         <v>99</v>
       </c>
       <c r="H15">
-        <v>130.6339</v>
+        <v>146.8265</v>
       </c>
       <c r="I15">
-        <v>7.7</v>
+        <v>5.9</v>
       </c>
       <c r="J15">
-        <v>2151</v>
+        <v>20</v>
       </c>
       <c r="K15" t="s">
         <v>100</v>
@@ -2722,7 +2734,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1126166</v>
+        <v>950396</v>
       </c>
       <c r="B16" t="s">
         <v>101</v>
@@ -2743,13 +2755,13 @@
         <v>106</v>
       </c>
       <c r="H16">
-        <v>117.9823</v>
+        <v>144.2901</v>
       </c>
       <c r="I16">
-        <v>6.1</v>
+        <v>7.7</v>
       </c>
       <c r="J16">
-        <v>531</v>
+        <v>2156</v>
       </c>
       <c r="K16" t="s">
         <v>107</v>
@@ -2778,51 +2790,51 @@
         <v>113</v>
       </c>
       <c r="H17">
-        <v>125.6672</v>
+        <v>143.7936</v>
       </c>
       <c r="I17">
-        <v>6.48</v>
+        <v>6.479</v>
       </c>
       <c r="J17">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1124620</v>
+        <v>939243</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H18">
-        <v>109.1947</v>
+        <v>138.0273</v>
       </c>
       <c r="I18">
-        <v>5.875</v>
+        <v>7.8</v>
       </c>
       <c r="J18">
-        <v>265</v>
+        <v>2278</v>
       </c>
       <c r="K18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2830,69 +2842,69 @@
         <v>1405338</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19">
-        <v>118.9885</v>
+        <v>138.1131</v>
       </c>
       <c r="I19">
-        <v>6.871</v>
+        <v>6.9</v>
       </c>
       <c r="J19">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>939243</v>
+        <v>1126166</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H20">
-        <v>119.7752</v>
+        <v>154.713</v>
       </c>
       <c r="I20">
-        <v>7.8</v>
+        <v>6.143</v>
       </c>
       <c r="J20">
-        <v>2276</v>
+        <v>536</v>
       </c>
       <c r="K20" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2906,7 +2918,7 @@
         <v>135</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
         <v>136</v>
@@ -2918,7 +2930,7 @@
         <v>138</v>
       </c>
       <c r="H21">
-        <v>110.0387</v>
+        <v>124.5451</v>
       </c>
       <c r="I21">
         <v>7.7</v>
@@ -2927,77 +2939,77 @@
         <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1210938</v>
+        <v>1124620</v>
       </c>
       <c r="B22" t="s">
         <v>139</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="F22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H22">
-        <v>97.3465</v>
+        <v>115.5916</v>
       </c>
       <c r="I22">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="J22">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c r="K22" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1145725</v>
+        <v>1139937</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="F23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H23">
-        <v>89.9677</v>
+        <v>108.9554</v>
       </c>
       <c r="I23">
-        <v>6.9</v>
+        <v>4.4</v>
       </c>
       <c r="J23">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="K23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3005,25 +3017,25 @@
         <v>1062276</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H24">
-        <v>99.1079</v>
+        <v>108.7018</v>
       </c>
       <c r="I24">
         <v>4.8</v>
@@ -3032,147 +3044,147 @@
         <v>10</v>
       </c>
       <c r="K24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>995926</v>
+        <v>257094</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E25" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F25" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H25">
-        <v>91.4403</v>
+        <v>99.0048</v>
       </c>
       <c r="I25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J25">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K25" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>937393</v>
+        <v>1210938</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G26" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H26">
-        <v>84.0071</v>
+        <v>105.5172</v>
       </c>
       <c r="I26">
-        <v>4.5</v>
+        <v>6.347</v>
       </c>
       <c r="J26">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="K26" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1197306</v>
+        <v>995926</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="E27" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G27" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H27">
-        <v>77.628</v>
+        <v>103.5844</v>
       </c>
       <c r="I27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J27">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="K27" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1362608</v>
+        <v>1145725</v>
       </c>
       <c r="B28" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G28" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H28">
-        <v>78.3259</v>
+        <v>91.196</v>
       </c>
       <c r="I28">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J28">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="K28" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3180,86 +3192,86 @@
         <v>927342</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C29" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F29" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G29" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H29">
-        <v>85.2765</v>
+        <v>97.7299</v>
       </c>
       <c r="I29">
-        <v>7.4</v>
+        <v>7.411</v>
       </c>
       <c r="J29">
         <v>197</v>
       </c>
       <c r="K29" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1151470</v>
+        <v>937393</v>
       </c>
       <c r="B30" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C30" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D30" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>183</v>
+        <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H30">
-        <v>133.7361</v>
+        <v>88.8089</v>
       </c>
       <c r="I30">
-        <v>5.9</v>
+        <v>4.5</v>
       </c>
       <c r="J30">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K30" t="s">
-        <v>186</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1064486</v>
+        <v>1362608</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
         <v>191</v>
@@ -3268,13 +3280,13 @@
         <v>192</v>
       </c>
       <c r="H31">
-        <v>68.2398</v>
+        <v>81.1025</v>
       </c>
       <c r="I31">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="J31">
-        <v>316</v>
+        <v>32</v>
       </c>
       <c r="K31" t="s">
         <v>193</v>
@@ -3282,7 +3294,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1104845</v>
+        <v>1197306</v>
       </c>
       <c r="B32" t="s">
         <v>194</v>
@@ -3291,325 +3303,325 @@
         <v>195</v>
       </c>
       <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
         <v>196</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>197</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>198</v>
       </c>
-      <c r="G32" t="s">
-        <v>199</v>
-      </c>
       <c r="H32">
-        <v>75.2487</v>
+        <v>107.1538</v>
       </c>
       <c r="I32">
-        <v>6.895</v>
+        <v>7.381</v>
       </c>
       <c r="J32">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="K32" t="s">
-        <v>200</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1084199</v>
+        <v>539972</v>
       </c>
       <c r="B33" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" t="s">
         <v>201</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>202</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>203</v>
       </c>
-      <c r="E33" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>204</v>
       </c>
-      <c r="G33" t="s">
-        <v>205</v>
-      </c>
       <c r="H33">
-        <v>76.1354</v>
+        <v>86.1363</v>
       </c>
       <c r="I33">
-        <v>7.093</v>
+        <v>6.632</v>
       </c>
       <c r="J33">
-        <v>869</v>
+        <v>1481</v>
       </c>
       <c r="K33" t="s">
-        <v>206</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>539972</v>
+        <v>1084199</v>
       </c>
       <c r="B34" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" t="s">
+        <v>206</v>
+      </c>
+      <c r="D34" t="s">
         <v>207</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" t="s">
         <v>208</v>
       </c>
-      <c r="D34" t="s">
+      <c r="G34" t="s">
         <v>209</v>
       </c>
-      <c r="E34" t="s">
+      <c r="H34">
+        <v>84.0342</v>
+      </c>
+      <c r="I34">
+        <v>7.1</v>
+      </c>
+      <c r="J34">
+        <v>880</v>
+      </c>
+      <c r="K34" t="s">
         <v>210</v>
-      </c>
-      <c r="F34" t="s">
-        <v>211</v>
-      </c>
-      <c r="G34" t="s">
-        <v>212</v>
-      </c>
-      <c r="H34">
-        <v>76.8223</v>
-      </c>
-      <c r="I34">
-        <v>6.655</v>
-      </c>
-      <c r="J34">
-        <v>1468</v>
-      </c>
-      <c r="K34" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1357633</v>
+        <v>1104845</v>
       </c>
       <c r="B35" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" t="s">
         <v>213</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>214</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>215</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>216</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35">
+        <v>88.1178</v>
+      </c>
+      <c r="I35">
+        <v>6.823</v>
+      </c>
+      <c r="J35">
+        <v>62</v>
+      </c>
+      <c r="K35" t="s">
         <v>217</v>
-      </c>
-      <c r="G35" t="s">
-        <v>218</v>
-      </c>
-      <c r="H35">
-        <v>70.098</v>
-      </c>
-      <c r="I35">
-        <v>6.9</v>
-      </c>
-      <c r="J35">
-        <v>172</v>
-      </c>
-      <c r="K35" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>696506</v>
+        <v>823219</v>
       </c>
       <c r="B36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D36" t="s">
         <v>220</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>221</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>222</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>223</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36">
+        <v>79.1425</v>
+      </c>
+      <c r="I36">
+        <v>8.3</v>
+      </c>
+      <c r="J36">
+        <v>1660</v>
+      </c>
+      <c r="K36" t="s">
         <v>224</v>
-      </c>
-      <c r="G36" t="s">
-        <v>225</v>
-      </c>
-      <c r="H36">
-        <v>68.6056</v>
-      </c>
-      <c r="I36">
-        <v>6.972</v>
-      </c>
-      <c r="J36">
-        <v>975</v>
-      </c>
-      <c r="K36" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>823219</v>
+        <v>1357633</v>
       </c>
       <c r="B37" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" t="s">
         <v>227</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>228</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>229</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>230</v>
       </c>
-      <c r="F37" t="s">
+      <c r="H37">
+        <v>78.3421</v>
+      </c>
+      <c r="I37">
+        <v>6.9</v>
+      </c>
+      <c r="J37">
+        <v>172</v>
+      </c>
+      <c r="K37" t="s">
         <v>231</v>
-      </c>
-      <c r="G37" t="s">
-        <v>232</v>
-      </c>
-      <c r="H37">
-        <v>71.2848</v>
-      </c>
-      <c r="I37">
-        <v>8.274</v>
-      </c>
-      <c r="J37">
-        <v>1657</v>
-      </c>
-      <c r="K37" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>558449</v>
+        <v>696506</v>
       </c>
       <c r="B38" t="s">
+        <v>232</v>
+      </c>
+      <c r="C38" t="s">
+        <v>233</v>
+      </c>
+      <c r="D38" t="s">
         <v>234</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>235</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>236</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>237</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38">
+        <v>74.4754</v>
+      </c>
+      <c r="I38">
+        <v>7</v>
+      </c>
+      <c r="J38">
+        <v>978</v>
+      </c>
+      <c r="K38" t="s">
         <v>238</v>
-      </c>
-      <c r="G38" t="s">
-        <v>239</v>
-      </c>
-      <c r="H38">
-        <v>56.8989</v>
-      </c>
-      <c r="I38">
-        <v>6.8</v>
-      </c>
-      <c r="J38">
-        <v>3082</v>
-      </c>
-      <c r="K38" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>912649</v>
+        <v>1064486</v>
       </c>
       <c r="B39" t="s">
+        <v>239</v>
+      </c>
+      <c r="C39" t="s">
+        <v>240</v>
+      </c>
+      <c r="D39" t="s">
         <v>241</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>242</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>243</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
         <v>244</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H39">
+        <v>76.2732</v>
+      </c>
+      <c r="I39">
+        <v>7.906</v>
+      </c>
+      <c r="J39">
+        <v>320</v>
+      </c>
+      <c r="K39" t="s">
         <v>245</v>
-      </c>
-      <c r="G39" t="s">
-        <v>246</v>
-      </c>
-      <c r="H39">
-        <v>66.7297</v>
-      </c>
-      <c r="I39">
-        <v>6.8</v>
-      </c>
-      <c r="J39">
-        <v>3073</v>
-      </c>
-      <c r="K39" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1226406</v>
+        <v>9277</v>
       </c>
       <c r="B40" t="s">
+        <v>246</v>
+      </c>
+      <c r="C40" t="s">
+        <v>247</v>
+      </c>
+      <c r="D40" t="s">
         <v>248</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>249</v>
       </c>
-      <c r="D40" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>250</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>251</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40">
+        <v>26.9147</v>
+      </c>
+      <c r="I40">
+        <v>8</v>
+      </c>
+      <c r="J40">
+        <v>2672</v>
+      </c>
+      <c r="K40" t="s">
         <v>252</v>
-      </c>
-      <c r="H40">
-        <v>62.0786</v>
-      </c>
-      <c r="I40">
-        <v>6</v>
-      </c>
-      <c r="J40">
-        <v>128</v>
-      </c>
-      <c r="K40" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1230208</v>
+        <v>912649</v>
       </c>
       <c r="B41" t="s">
+        <v>253</v>
+      </c>
+      <c r="C41" t="s">
         <v>254</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>255</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>256</v>
-      </c>
-      <c r="E41" t="s">
-        <v>78</v>
       </c>
       <c r="F41" t="s">
         <v>257</v>
@@ -3618,13 +3630,13 @@
         <v>258</v>
       </c>
       <c r="H41">
-        <v>60.153</v>
+        <v>75.8786</v>
       </c>
       <c r="I41">
-        <v>6.2</v>
+        <v>6.785</v>
       </c>
       <c r="J41">
-        <v>105</v>
+        <v>3078</v>
       </c>
       <c r="K41" t="s">
         <v>259</v>
@@ -3632,7 +3644,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>972533</v>
+        <v>1226406</v>
       </c>
       <c r="B42" t="s">
         <v>260</v>
@@ -3641,10 +3653,10 @@
         <v>261</v>
       </c>
       <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
         <v>262</v>
-      </c>
-      <c r="E42" t="s">
-        <v>78</v>
       </c>
       <c r="F42" t="s">
         <v>263</v>
@@ -3653,51 +3665,51 @@
         <v>264</v>
       </c>
       <c r="H42">
-        <v>56.9913</v>
+        <v>73.2639</v>
       </c>
       <c r="I42">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="J42">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="K42" t="s">
-        <v>149</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1139937</v>
+        <v>1230208</v>
       </c>
       <c r="B43" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C43" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="E43" t="s">
-        <v>266</v>
+        <v>67</v>
       </c>
       <c r="F43" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G43" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H43">
-        <v>100.6328</v>
+        <v>60.153</v>
       </c>
       <c r="I43">
-        <v>4.4</v>
+        <v>6.284</v>
       </c>
       <c r="J43">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="K43" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3705,139 +3717,139 @@
         <v>1140535</v>
       </c>
       <c r="B44" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C44" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F44" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G44" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H44">
-        <v>59.857</v>
+        <v>66.9671</v>
       </c>
       <c r="I44">
-        <v>5.9</v>
+        <v>5.944</v>
       </c>
       <c r="J44">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K44" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1407861</v>
+        <v>1160956</v>
       </c>
       <c r="B45" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C45" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>280</v>
       </c>
       <c r="E45" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F45" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G45" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H45">
-        <v>55.697</v>
+        <v>68.2092</v>
       </c>
       <c r="I45">
-        <v>6.5</v>
+        <v>7.003</v>
       </c>
       <c r="J45">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="K45" t="s">
-        <v>280</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1286663</v>
+        <v>950387</v>
       </c>
       <c r="B46" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C46" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D46" t="s">
-        <v>283</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F46" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G46" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H46">
-        <v>56.516</v>
+        <v>72.3338</v>
       </c>
       <c r="I46">
-        <v>5.548</v>
+        <v>5.5</v>
       </c>
       <c r="J46">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="K46" t="s">
-        <v>49</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>935766</v>
+        <v>972533</v>
       </c>
       <c r="B47" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C47" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="E47" t="s">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="F47" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G47" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H47">
-        <v>52.8339</v>
+        <v>63.2761</v>
       </c>
       <c r="I47">
-        <v>8.167</v>
+        <v>6.074</v>
       </c>
       <c r="J47">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s">
-        <v>291</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3845,25 +3857,25 @@
         <v>926670</v>
       </c>
       <c r="B48" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C48" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F48" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G48" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H48">
-        <v>56.9191</v>
+        <v>63.2441</v>
       </c>
       <c r="I48">
         <v>7.8</v>
@@ -3872,217 +3884,217 @@
         <v>187</v>
       </c>
       <c r="K48" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1195506</v>
+        <v>558449</v>
       </c>
       <c r="B49" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C49" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D49" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E49" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F49" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G49" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H49">
-        <v>52.1675</v>
+        <v>64.6574</v>
       </c>
       <c r="I49">
-        <v>7</v>
+        <v>6.767</v>
       </c>
       <c r="J49">
-        <v>77</v>
+        <v>3085</v>
       </c>
       <c r="K49" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>558449</v>
+        <v>1286663</v>
       </c>
       <c r="B50" t="s">
-        <v>234</v>
+        <v>307</v>
       </c>
       <c r="C50" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="D50" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="E50" t="s">
-        <v>237</v>
+        <v>310</v>
       </c>
       <c r="F50" t="s">
-        <v>238</v>
+        <v>311</v>
       </c>
       <c r="G50" t="s">
-        <v>239</v>
+        <v>312</v>
       </c>
       <c r="H50">
-        <v>56.8989</v>
+        <v>61.1851</v>
       </c>
       <c r="I50">
-        <v>6.767</v>
+        <v>5.5</v>
       </c>
       <c r="J50">
-        <v>3082</v>
+        <v>31</v>
       </c>
       <c r="K50" t="s">
-        <v>240</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1064213</v>
+        <v>1407861</v>
       </c>
       <c r="B51" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C51" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="D51" t="s">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F51" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="G51" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H51">
-        <v>54.3474</v>
+        <v>62.7153</v>
       </c>
       <c r="I51">
-        <v>7</v>
+        <v>6.524</v>
       </c>
       <c r="J51">
-        <v>1876</v>
+        <v>42</v>
       </c>
       <c r="K51" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>850920</v>
+        <v>533535</v>
       </c>
       <c r="B52" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C52" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>320</v>
       </c>
       <c r="E52" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="F52" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G52" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="H52">
-        <v>48.8052</v>
+        <v>61.5536</v>
       </c>
       <c r="I52">
-        <v>5.8</v>
+        <v>7.608</v>
       </c>
       <c r="J52">
-        <v>62</v>
+        <v>6946</v>
       </c>
       <c r="K52" t="s">
-        <v>120</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>533535</v>
+        <v>1064213</v>
       </c>
       <c r="B53" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="C53" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="D53" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="E53" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="F53" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="G53" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="H53">
-        <v>54.9245</v>
+        <v>63.0181</v>
       </c>
       <c r="I53">
-        <v>7.608</v>
+        <v>7.041</v>
       </c>
       <c r="J53">
-        <v>6941</v>
+        <v>1884</v>
       </c>
       <c r="K53" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>950387</v>
+        <v>935766</v>
       </c>
       <c r="B54" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="C54" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="F54" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="G54" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="H54">
-        <v>57.8923</v>
+        <v>59.1206</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>8.161</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K54" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -4090,104 +4102,104 @@
         <v>933260</v>
       </c>
       <c r="B55" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C55" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="D55" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="E55" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="F55" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="G55" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="H55">
-        <v>52.7053</v>
+        <v>57.0458</v>
       </c>
       <c r="I55">
         <v>7.132</v>
       </c>
       <c r="J55">
-        <v>4277</v>
+        <v>4281</v>
       </c>
       <c r="K55" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>519182</v>
+        <v>1195506</v>
       </c>
       <c r="B56" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C56" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="D56" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>347</v>
       </c>
       <c r="F56" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="G56" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="H56">
-        <v>51.0695</v>
+        <v>57.946</v>
       </c>
       <c r="I56">
-        <v>7.055</v>
+        <v>7</v>
       </c>
       <c r="J56">
-        <v>2647</v>
+        <v>85</v>
       </c>
       <c r="K56" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1075456</v>
+        <v>519182</v>
       </c>
       <c r="B57" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="C57" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="D57" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="E57" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="G57" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="H57">
-        <v>44.2309</v>
+        <v>57.3057</v>
       </c>
       <c r="I57">
-        <v>6.222</v>
+        <v>7.055</v>
       </c>
       <c r="J57">
-        <v>45</v>
+        <v>2648</v>
       </c>
       <c r="K57" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4195,1326 +4207,1320 @@
         <v>1244361</v>
       </c>
       <c r="B58" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="C58" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="F58" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="G58" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="H58">
-        <v>49.7224</v>
+        <v>56.0803</v>
       </c>
       <c r="I58">
-        <v>3.833</v>
+        <v>3.8</v>
       </c>
       <c r="J58">
         <v>12</v>
       </c>
       <c r="K58" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1184918</v>
+        <v>850920</v>
       </c>
       <c r="B59" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="C59" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="D59" t="s">
-        <v>353</v>
+        <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F59" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="G59" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="H59">
-        <v>48.1948</v>
+        <v>52.7588</v>
       </c>
       <c r="I59">
-        <v>8.337</v>
+        <v>5.9</v>
       </c>
       <c r="J59">
-        <v>4600</v>
+        <v>63</v>
       </c>
       <c r="K59" t="s">
-        <v>357</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1360170</v>
+        <v>1391385</v>
       </c>
       <c r="B60" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C60" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>176</v>
+        <v>366</v>
       </c>
       <c r="F60" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G60" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="H60">
-        <v>45.8336</v>
+        <v>57.6034</v>
       </c>
       <c r="I60">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="J60">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K60" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1316673</v>
+        <v>1184918</v>
       </c>
       <c r="B61" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C61" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>372</v>
       </c>
       <c r="E61" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="F61" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="G61" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="H61">
-        <v>44.5665</v>
+        <v>55.4545</v>
       </c>
       <c r="I61">
-        <v>2.3</v>
+        <v>8.3</v>
       </c>
       <c r="J61">
-        <v>3</v>
+        <v>4602</v>
       </c>
       <c r="K61" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1177908</v>
+        <v>1249289</v>
       </c>
       <c r="B62" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C62" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>379</v>
       </c>
       <c r="E62" t="s">
-        <v>369</v>
+        <v>274</v>
       </c>
       <c r="F62" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="G62" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="H62">
-        <v>42.1177</v>
+        <v>53.5065</v>
       </c>
       <c r="I62">
-        <v>6.7</v>
+        <v>5.812</v>
       </c>
       <c r="J62">
-        <v>3</v>
+        <v>234</v>
       </c>
       <c r="K62" t="s">
-        <v>372</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1249289</v>
+        <v>1010581</v>
       </c>
       <c r="B63" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C63" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="D63" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="E63" t="s">
-        <v>272</v>
+        <v>385</v>
       </c>
       <c r="F63" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="G63" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="H63">
-        <v>46.7044</v>
+        <v>53.9757</v>
       </c>
       <c r="I63">
-        <v>5.815</v>
+        <v>7.824</v>
       </c>
       <c r="J63">
-        <v>232</v>
+        <v>3616</v>
       </c>
       <c r="K63" t="s">
-        <v>107</v>
+        <v>388</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1022789</v>
+        <v>1360170</v>
       </c>
       <c r="B64" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="C64" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="D64" t="s">
-        <v>380</v>
+        <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>381</v>
+        <v>181</v>
       </c>
       <c r="F64" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="G64" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="H64">
-        <v>44.2751</v>
+        <v>51.0456</v>
       </c>
       <c r="I64">
-        <v>7.6</v>
+        <v>6.308</v>
       </c>
       <c r="J64">
-        <v>5686</v>
+        <v>13</v>
       </c>
       <c r="K64" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1229646</v>
+        <v>1316673</v>
       </c>
       <c r="B65" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C65" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="F65" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="G65" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="H65">
-        <v>43.1241</v>
+        <v>48.3449</v>
       </c>
       <c r="I65">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="J65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K65" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>574475</v>
+        <v>1022789</v>
       </c>
       <c r="B66" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C66" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>401</v>
       </c>
       <c r="E66" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="F66" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="G66" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="H66">
-        <v>38.8045</v>
+        <v>51.0663</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>7.556</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>5689</v>
       </c>
       <c r="K66" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1010581</v>
+        <v>1075456</v>
       </c>
       <c r="B67" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C67" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="D67" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="E67" t="s">
-        <v>399</v>
+        <v>214</v>
       </c>
       <c r="F67" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="G67" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="H67">
-        <v>46.2685</v>
+        <v>37.7175</v>
       </c>
       <c r="I67">
-        <v>7.8</v>
+        <v>6.219</v>
       </c>
       <c r="J67">
-        <v>3615</v>
+        <v>48</v>
       </c>
       <c r="K67" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1233575</v>
+        <v>1229646</v>
       </c>
       <c r="B68" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C68" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D68" t="s">
-        <v>405</v>
+        <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>300</v>
+        <v>413</v>
       </c>
       <c r="F68" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="G68" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="H68">
-        <v>39.3188</v>
+        <v>43.1241</v>
       </c>
       <c r="I68">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="J68">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="K68" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1333099</v>
+        <v>921436</v>
       </c>
       <c r="B69" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C69" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>418</v>
       </c>
       <c r="E69" t="s">
-        <v>190</v>
+        <v>419</v>
       </c>
       <c r="F69" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="G69" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="H69">
-        <v>41.3012</v>
+        <v>49.8292</v>
       </c>
       <c r="I69">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="J69">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="K69" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>921436</v>
+        <v>1177908</v>
       </c>
       <c r="B70" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C70" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="D70" t="s">
-        <v>414</v>
+        <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="F70" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="G70" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="H70">
-        <v>42.6677</v>
+        <v>45.9347</v>
       </c>
       <c r="I70">
-        <v>7.287</v>
+        <v>6.7</v>
       </c>
       <c r="J70">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="K70" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>617359</v>
+        <v>1302151</v>
       </c>
       <c r="B71" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="C71" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>420</v>
+        <v>274</v>
       </c>
       <c r="F71" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="G71" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="H71">
-        <v>40.3107</v>
+        <v>46.6333</v>
       </c>
       <c r="I71">
-        <v>4.7</v>
+        <v>8.638</v>
       </c>
       <c r="J71">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="K71" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1239481</v>
+        <v>1333099</v>
       </c>
       <c r="B72" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C72" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E72" t="s">
-        <v>425</v>
+        <v>242</v>
       </c>
       <c r="F72" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="G72" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="H72">
-        <v>38.2844</v>
+        <v>47.0262</v>
       </c>
       <c r="I72">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="J72">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K72" t="s">
-        <v>372</v>
+        <v>434</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1302151</v>
+        <v>1035048</v>
       </c>
       <c r="B73" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="C73" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>437</v>
       </c>
       <c r="E73" t="s">
-        <v>272</v>
+        <v>438</v>
       </c>
       <c r="F73" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="G73" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="H73">
-        <v>41.591</v>
+        <v>45.2982</v>
       </c>
       <c r="I73">
-        <v>8.578</v>
+        <v>6.5</v>
       </c>
       <c r="J73">
-        <v>45</v>
+        <v>635</v>
       </c>
       <c r="K73" t="s">
-        <v>361</v>
+        <v>441</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1035048</v>
+        <v>617359</v>
       </c>
       <c r="B74" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="C74" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="D74" t="s">
-        <v>433</v>
+        <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="F74" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="G74" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="H74">
-        <v>40.7974</v>
+        <v>48.7783</v>
       </c>
       <c r="I74">
-        <v>6.5</v>
+        <v>4.7</v>
       </c>
       <c r="J74">
-        <v>635</v>
+        <v>3</v>
       </c>
       <c r="K74" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1293263</v>
+        <v>774370</v>
       </c>
       <c r="B75" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="C75" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="E75" t="s">
-        <v>440</v>
+        <v>136</v>
       </c>
       <c r="F75" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="G75" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="H75">
-        <v>38.7433</v>
+        <v>45.2698</v>
       </c>
       <c r="I75">
-        <v>5.8</v>
+        <v>7.8</v>
       </c>
       <c r="J75">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="K75" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>774370</v>
+        <v>845781</v>
       </c>
       <c r="B76" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="C76" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="D76" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="E76" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="F76" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="G76" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="H76">
-        <v>40.0406</v>
+        <v>45.7183</v>
       </c>
       <c r="I76">
-        <v>7.8</v>
+        <v>7.062</v>
       </c>
       <c r="J76">
-        <v>174</v>
+        <v>2409</v>
       </c>
       <c r="K76" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>157336</v>
+        <v>1233575</v>
       </c>
       <c r="B77" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="C77" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="D77" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="E77" t="s">
-        <v>453</v>
+        <v>347</v>
       </c>
       <c r="F77" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="G77" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="H77">
-        <v>35.8616</v>
+        <v>46.8558</v>
       </c>
       <c r="I77">
-        <v>8.5</v>
+        <v>6.657</v>
       </c>
       <c r="J77">
-        <v>36791</v>
+        <v>108</v>
       </c>
       <c r="K77" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1013482</v>
+        <v>7451</v>
       </c>
       <c r="B78" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C78" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="D78" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="E78" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="F78" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="G78" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="H78">
-        <v>37.2818</v>
+        <v>43.4776</v>
       </c>
       <c r="I78">
-        <v>5.919</v>
+        <v>5.94</v>
       </c>
       <c r="J78">
-        <v>43</v>
+        <v>4377</v>
       </c>
       <c r="K78" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>845781</v>
+        <v>574475</v>
       </c>
       <c r="B79" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C79" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="D79" t="s">
-        <v>466</v>
+        <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>176</v>
+        <v>474</v>
       </c>
       <c r="F79" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="G79" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="H79">
-        <v>39.6651</v>
+        <v>40.0723</v>
       </c>
       <c r="I79">
-        <v>7.062</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>2407</v>
+        <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>7451</v>
+        <v>1293263</v>
       </c>
       <c r="B80" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C80" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="D80" t="s">
-        <v>472</v>
+        <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="F80" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="G80" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="H80">
-        <v>38.9366</v>
+        <v>42.3203</v>
       </c>
       <c r="I80">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J80">
-        <v>4375</v>
+        <v>31</v>
       </c>
       <c r="K80" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1188104</v>
+        <v>1239481</v>
       </c>
       <c r="B81" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="C81" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="F81" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="G81" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="H81">
-        <v>36.4099</v>
+        <v>41.7325</v>
       </c>
       <c r="I81">
-        <v>8.1</v>
+        <v>5.6</v>
       </c>
       <c r="J81">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K81" t="s">
-        <v>160</v>
+        <v>427</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>402431</v>
+        <v>1241320</v>
       </c>
       <c r="B82" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="C82" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="D82" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="E82" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="F82" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="G82" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="H82">
-        <v>35.6061</v>
+        <v>28.0975</v>
       </c>
       <c r="I82">
         <v>6.9</v>
       </c>
       <c r="J82">
-        <v>1970</v>
+        <v>505</v>
       </c>
       <c r="K82" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1128752</v>
+        <v>1013482</v>
       </c>
       <c r="B83" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="C83" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="D83" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="E83" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="F83" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="G83" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="H83">
-        <v>33.3982</v>
+        <v>41.6553</v>
       </c>
       <c r="I83">
-        <v>7.3</v>
+        <v>5.827</v>
       </c>
       <c r="J83">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="K83" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1379074</v>
+        <v>238</v>
       </c>
       <c r="B84" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="C84" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>504</v>
       </c>
       <c r="E84" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="F84" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="G84" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="H84">
-        <v>31.9605</v>
+        <v>36.8013</v>
       </c>
       <c r="I84">
-        <v>7</v>
+        <v>8.7</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>21207</v>
       </c>
       <c r="K84" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>993710</v>
+        <v>1252309</v>
       </c>
       <c r="B85" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="C85" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="D85" t="s">
-        <v>501</v>
+        <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="F85" t="s">
-        <v>503</v>
-      </c>
-      <c r="G85" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="H85">
-        <v>34.7183</v>
+        <v>41.3919</v>
       </c>
       <c r="I85">
-        <v>6.45</v>
+        <v>6</v>
       </c>
       <c r="J85">
-        <v>1119</v>
+        <v>99</v>
       </c>
       <c r="K85" t="s">
-        <v>93</v>
+        <v>388</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1252309</v>
+        <v>1260416</v>
       </c>
       <c r="B86" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C86" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>506</v>
-      </c>
-      <c r="F86" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="H86">
-        <v>36.6941</v>
+        <v>37.1413</v>
       </c>
       <c r="I86">
-        <v>6.01</v>
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>402</v>
+        <v>514</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1255788</v>
+        <v>1188104</v>
       </c>
       <c r="B87" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="C87" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" t="s">
+        <v>516</v>
+      </c>
+      <c r="F87" t="s">
+        <v>517</v>
+      </c>
+      <c r="G87" t="s">
+        <v>518</v>
+      </c>
+      <c r="H87">
+        <v>41.2905</v>
+      </c>
+      <c r="I87">
+        <v>8.1</v>
+      </c>
+      <c r="J87">
         <v>19</v>
       </c>
-      <c r="E87" t="s">
-        <v>509</v>
-      </c>
-      <c r="F87" t="s">
-        <v>510</v>
-      </c>
-      <c r="G87" t="s">
-        <v>511</v>
-      </c>
-      <c r="H87">
-        <v>34.4968</v>
-      </c>
-      <c r="I87">
-        <v>6.411</v>
-      </c>
-      <c r="J87">
-        <v>112</v>
-      </c>
       <c r="K87" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>811941</v>
+        <v>157336</v>
       </c>
       <c r="B88" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C88" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="D88" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="E88" t="s">
-        <v>266</v>
+        <v>522</v>
       </c>
       <c r="F88" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="G88" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="H88">
-        <v>34.6</v>
+        <v>41.6929</v>
       </c>
       <c r="I88">
-        <v>7</v>
+        <v>8.453</v>
       </c>
       <c r="J88">
-        <v>179</v>
+        <v>36795</v>
       </c>
       <c r="K88" t="s">
-        <v>418</v>
+        <v>525</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>426063</v>
+        <v>402431</v>
       </c>
       <c r="B89" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="C89" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="D89" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="E89" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="F89" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="G89" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="H89">
-        <v>32.5663</v>
+        <v>40.6373</v>
       </c>
       <c r="I89">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="J89">
-        <v>2409</v>
+        <v>1971</v>
       </c>
       <c r="K89" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1294203</v>
+        <v>993710</v>
       </c>
       <c r="B90" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="C90" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="D90" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="E90" t="s">
-        <v>27</v>
+        <v>536</v>
       </c>
       <c r="F90" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="G90" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="H90">
-        <v>33.6185</v>
+        <v>38.9729</v>
       </c>
       <c r="I90">
-        <v>7.47</v>
+        <v>6.451</v>
       </c>
       <c r="J90">
-        <v>338</v>
+        <v>1121</v>
       </c>
       <c r="K90" t="s">
-        <v>402</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>974453</v>
+        <v>811941</v>
       </c>
       <c r="B91" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="C91" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="D91" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="E91" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="F91" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="G91" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="H91">
-        <v>32.1337</v>
+        <v>38.5427</v>
       </c>
       <c r="I91">
-        <v>5.9</v>
+        <v>6.972</v>
       </c>
       <c r="J91">
-        <v>367</v>
+        <v>180</v>
       </c>
       <c r="K91" t="s">
-        <v>534</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1138194</v>
+        <v>1156593</v>
       </c>
       <c r="B92" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="C92" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="D92" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="E92" t="s">
-        <v>176</v>
+        <v>547</v>
       </c>
       <c r="F92" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="G92" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="H92">
-        <v>31.7926</v>
+        <v>39.1353</v>
       </c>
       <c r="I92">
-        <v>7.1</v>
+        <v>7.125</v>
       </c>
       <c r="J92">
-        <v>1411</v>
+        <v>1177</v>
       </c>
       <c r="K92" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1165464</v>
+        <v>1255788</v>
       </c>
       <c r="B93" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="C93" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>90</v>
+        <v>551</v>
       </c>
       <c r="F93" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="G93" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="H93">
-        <v>30.6948</v>
+        <v>39.0487</v>
       </c>
       <c r="I93">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="J93">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="K93" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1147416</v>
+        <v>1294203</v>
       </c>
       <c r="B94" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="C94" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="D94" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="E94" t="s">
-        <v>547</v>
+        <v>27</v>
       </c>
       <c r="F94" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="G94" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="H94">
-        <v>31.2551</v>
+        <v>38.7114</v>
       </c>
       <c r="I94">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="J94">
-        <v>238</v>
+        <v>338</v>
       </c>
       <c r="K94" t="s">
-        <v>550</v>
+        <v>388</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>629078</v>
+        <v>1128752</v>
       </c>
       <c r="B95" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="C95" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>561</v>
       </c>
       <c r="E95" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="F95" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="G95" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="H95">
-        <v>32.5777</v>
+        <v>36.2925</v>
       </c>
       <c r="I95">
-        <v>8</v>
+        <v>7.25</v>
       </c>
       <c r="J95">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="K95" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -5522,25 +5528,25 @@
         <v>1352774</v>
       </c>
       <c r="B96" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="C96" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="F96" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="G96" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="H96">
-        <v>33.027</v>
+        <v>36.6697</v>
       </c>
       <c r="I96">
         <v>5.6</v>
@@ -5554,177 +5560,177 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1333100</v>
+        <v>629078</v>
       </c>
       <c r="B97" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="C97" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="D97" t="s">
-        <v>562</v>
+        <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>491</v>
+        <v>571</v>
       </c>
       <c r="F97" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="G97" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="H97">
-        <v>30.2215</v>
+        <v>37.5945</v>
       </c>
       <c r="I97">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="J97">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="K97" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>299536</v>
+        <v>426063</v>
       </c>
       <c r="B98" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="C98" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="D98" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="E98" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="F98" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="G98" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="H98">
-        <v>30.2478</v>
+        <v>36.5517</v>
       </c>
       <c r="I98">
-        <v>8.2</v>
+        <v>6.708</v>
       </c>
       <c r="J98">
-        <v>30342</v>
+        <v>2413</v>
       </c>
       <c r="K98" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>238</v>
+        <v>1410082</v>
       </c>
       <c r="B99" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="C99" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="D99" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="E99" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="F99" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="G99" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="H99">
-        <v>36.7575</v>
+        <v>36.597</v>
       </c>
       <c r="I99">
-        <v>8.689</v>
+        <v>6.7</v>
       </c>
       <c r="J99">
-        <v>21202</v>
+        <v>118</v>
       </c>
       <c r="K99" t="s">
-        <v>579</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>411</v>
+        <v>974453</v>
       </c>
       <c r="B100" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="C100" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="D100" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="E100" t="s">
-        <v>583</v>
+        <v>181</v>
       </c>
       <c r="F100" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="G100" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="H100">
-        <v>30.6993</v>
+        <v>37.8689</v>
       </c>
       <c r="I100">
-        <v>7.133</v>
+        <v>5.923</v>
       </c>
       <c r="J100">
-        <v>10843</v>
+        <v>368</v>
       </c>
       <c r="K100" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1437446</v>
+        <v>1379074</v>
       </c>
       <c r="B101" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="C101" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="D101" t="s">
-        <v>589</v>
+        <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="F101" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="G101" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="H101">
-        <v>29.4962</v>
+        <v>35.673</v>
       </c>
       <c r="I101">
-        <v>6.076</v>
+        <v>7</v>
       </c>
       <c r="J101">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="K101" t="s">
-        <v>593</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
